--- a/docs/鍵盤設計規格_台灣注音.xlsx
+++ b/docs/鍵盤設計規格_台灣注音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA3C96E-47C6-4171-BA89-4942B6319537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1141F1C8-6499-4C66-B301-B1ACBE84BFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{53DB61E7-A99C-486E-8A38-83CAA5EE6501}"/>
+    <workbookView minimized="1" xWindow="5310" yWindow="4080" windowWidth="28980" windowHeight="15840" activeTab="1" xr2:uid="{53DB61E7-A99C-486E-8A38-83CAA5EE6501}"/>
   </bookViews>
   <sheets>
     <sheet name="RIME解析(BoPoMoFo)" sheetId="1" r:id="rId1"/>
@@ -1178,6 +1178,8 @@
         <sz val="28"/>
         <color theme="8"/>
         <rFont val="Noto Serif TC Bold"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1370,6 +1372,8 @@
         <sz val="28"/>
         <color theme="8"/>
         <rFont val="Noto Serif TC Bold"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2154,6 +2158,8 @@
       <sz val="28"/>
       <color theme="8"/>
       <name val="Noto Serif TC Bold"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="28"/>
@@ -2969,47 +2975,17 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="66" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="67" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="68" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="66" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="70" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="71" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3025,33 +3001,12 @@
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="73" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="66" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="74" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="75" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="76" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="77" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="76" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="76" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3079,15 +3034,6 @@
     </xf>
     <xf numFmtId="0" fontId="81" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="12" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3148,6 +3094,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="76" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3278,16 +3284,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="double">
+        <top style="thin">
           <color rgb="FF000000"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="double">
           <color rgb="FF000000"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3969,7 +3975,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{739BBE89-F08A-4EB4-876E-6946B81A61E6}" name="表格7_9" displayName="表格7_9" ref="AV8:AZ58" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{739BBE89-F08A-4EB4-876E-6946B81A61E6}" name="表格7_9" displayName="表格7_9" ref="AV8:AZ58" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="AV8:AZ58" xr:uid="{3B0A2C71-8D94-4593-BB80-02894E7265FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{71FDF87D-76C3-4355-BDAB-D340D8A9EEA4}" name="序號" dataDxfId="4">
@@ -4306,7 +4312,7 @@
   </sheetPr>
   <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="BI18" sqref="BI18"/>
     </sheetView>
   </sheetViews>
@@ -4334,29 +4340,25 @@
     <col min="30" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1">
+    <row r="1" spans="1:27">
       <c r="A1" s="23" t="s">
         <v>91</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
       <c r="K1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="3"/>
       <c r="O1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" s="2"/>
       <c r="S1" s="37" t="s">
         <v>88</v>
       </c>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5">
+    <row r="2" spans="1:27" ht="25.5">
       <c r="A2" s="36" t="s">
         <v>87</v>
       </c>
@@ -4400,7 +4402,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <f xml:space="preserve"> SEARCH("|",$A$2,1)</f>
         <v>5</v>
@@ -4410,44 +4412,44 @@
         <v>1</v>
       </c>
       <c r="H3" s="27" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G3, 1), "")</f>
+        <f t="shared" ref="H3:H34" si="0" xml:space="preserve"> IFERROR( MID($A$6, $G3, 1), "")</f>
         <v>b</v>
       </c>
       <c r="I3" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G3, 1), "")</f>
+        <f t="shared" ref="I3:I34" si="1" xml:space="preserve"> IFERROR( MID($A$7, $G3, 1), "")</f>
         <v>1</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
       <c r="L3" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G3, 1), "")</f>
+        <f t="shared" ref="L3:L34" si="2" xml:space="preserve"> IFERROR( MID($A$15, $G3, 1), "")</f>
         <v>1</v>
       </c>
       <c r="M3" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G3, 1), "")</f>
+        <f t="shared" ref="M3:M34" si="3" xml:space="preserve"> IFERROR( MID($A$16, $G3, 1), "")</f>
         <v>ㄅ</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
       <c r="P3" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G3, 1), "")</f>
+        <f t="shared" ref="P3:P44" si="4" xml:space="preserve"> IFERROR( MID($A$21, $G3, 1), "")</f>
         <v/>
       </c>
       <c r="Q3" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G3, 1), "")</f>
+        <f t="shared" ref="Q3:Q44" si="5" xml:space="preserve"> IFERROR( MID($A$22, $G3, 1), "")</f>
         <v/>
       </c>
       <c r="S3" s="1">
         <v>1</v>
       </c>
       <c r="T3" s="2" t="str">
-        <f>I3</f>
+        <f t="shared" ref="T3:T34" si="6">I3</f>
         <v>1</v>
       </c>
       <c r="U3" s="6" t="str">
-        <f>H3</f>
+        <f t="shared" ref="U3:U34" si="7">H3</f>
         <v>b</v>
       </c>
       <c r="V3" s="6" t="str">
@@ -4469,7 +4471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="1" customFormat="1">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <f xml:space="preserve"> SEARCH("|",$A$2,A3+1)</f>
         <v>48</v>
@@ -4479,44 +4481,44 @@
         <v>2</v>
       </c>
       <c r="H4" s="25" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G4, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>p</v>
       </c>
       <c r="I4" s="24" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G4, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>q</v>
       </c>
       <c r="K4" s="1">
         <v>2</v>
       </c>
       <c r="L4" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G4, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>q</v>
       </c>
       <c r="M4" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G4, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄆ</v>
       </c>
       <c r="O4" s="1">
         <v>2</v>
       </c>
       <c r="P4" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G4, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q4" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G4, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S4" s="1">
         <v>2</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>I4</f>
+        <f t="shared" si="6"/>
         <v>q</v>
       </c>
       <c r="U4" s="6" t="str">
-        <f>H4</f>
+        <f t="shared" si="7"/>
         <v>p</v>
       </c>
       <c r="V4" s="6" t="str">
@@ -4538,7 +4540,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <f xml:space="preserve"> SEARCH("|",$A$2,A4+1)</f>
         <v>91</v>
@@ -4548,44 +4550,44 @@
         <v>3</v>
       </c>
       <c r="H5" s="25" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G5, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>m</v>
       </c>
       <c r="I5" s="24" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G5, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>a</v>
       </c>
       <c r="K5" s="1">
         <v>3</v>
       </c>
       <c r="L5" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G5, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>a</v>
       </c>
       <c r="M5" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G5, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄇ</v>
       </c>
       <c r="O5" s="1">
         <v>3</v>
       </c>
       <c r="P5" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G5, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q5" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G5, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S5" s="1">
         <v>3</v>
       </c>
       <c r="T5" s="2" t="str">
-        <f>I5</f>
+        <f t="shared" si="6"/>
         <v>a</v>
       </c>
       <c r="U5" s="6" t="str">
-        <f>H5</f>
+        <f t="shared" si="7"/>
         <v>m</v>
       </c>
       <c r="V5" s="6" t="str">
@@ -4607,7 +4609,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="1" customFormat="1">
+    <row r="6" spans="1:27">
       <c r="A6" s="14" t="str">
         <f xml:space="preserve"> MID($A$2,A3+1, A4-A3-1)</f>
         <v>bpmfdtnlgkhjqxZCSrzcsiuvaoeEAIOUMNKGR12345</v>
@@ -4621,44 +4623,44 @@
         <v>4</v>
       </c>
       <c r="H6" s="17" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G6, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>f</v>
       </c>
       <c r="I6" s="16" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G6, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>z</v>
       </c>
       <c r="K6" s="1">
         <v>4</v>
       </c>
       <c r="L6" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G6, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>z</v>
       </c>
       <c r="M6" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G6, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄈ</v>
       </c>
       <c r="O6" s="1">
         <v>4</v>
       </c>
       <c r="P6" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G6, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q6" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G6, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S6" s="1">
         <v>4</v>
       </c>
       <c r="T6" s="2" t="str">
-        <f>I6</f>
+        <f t="shared" si="6"/>
         <v>z</v>
       </c>
       <c r="U6" s="6" t="str">
-        <f>H6</f>
+        <f t="shared" si="7"/>
         <v>f</v>
       </c>
       <c r="V6" s="6" t="str">
@@ -4680,7 +4682,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="1" customFormat="1">
+    <row r="7" spans="1:27">
       <c r="A7" s="14" t="str">
         <f xml:space="preserve"> MID($A$2,A4+1, A5-A4-1)</f>
         <v>1qaz2wsxedcrfv5tgbyhnujm8ik,9ol.0p;/- 6347</v>
@@ -4694,44 +4696,44 @@
         <v>5</v>
       </c>
       <c r="H7" s="25" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G7, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>d</v>
       </c>
       <c r="I7" s="24" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G7, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K7" s="1">
         <v>5</v>
       </c>
       <c r="L7" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G7, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M7" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G7, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄉ</v>
       </c>
       <c r="O7" s="1">
         <v>5</v>
       </c>
       <c r="P7" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G7, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q7" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G7, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S7" s="1">
         <v>5</v>
       </c>
       <c r="T7" s="2" t="str">
-        <f>I7</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U7" s="6" t="str">
-        <f>H7</f>
+        <f t="shared" si="7"/>
         <v>d</v>
       </c>
       <c r="V7" s="6" t="str">
@@ -4753,50 +4755,50 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="1" customFormat="1">
+    <row r="8" spans="1:27">
       <c r="G8" s="1" cm="1">
         <f t="array" ref="G8" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>6</v>
       </c>
       <c r="H8" s="25" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G8, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>t</v>
       </c>
       <c r="I8" s="24" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G8, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>w</v>
       </c>
       <c r="K8" s="1">
         <v>6</v>
       </c>
       <c r="L8" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G8, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>w</v>
       </c>
       <c r="M8" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G8, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄊ</v>
       </c>
       <c r="O8" s="1">
         <v>6</v>
       </c>
       <c r="P8" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G8, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q8" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G8, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S8" s="1">
         <v>6</v>
       </c>
       <c r="T8" s="2" t="str">
-        <f>I8</f>
+        <f t="shared" si="6"/>
         <v>w</v>
       </c>
       <c r="U8" s="6" t="str">
-        <f>H8</f>
+        <f t="shared" si="7"/>
         <v>t</v>
       </c>
       <c r="V8" s="6" t="str">
@@ -4818,50 +4820,50 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="1" customFormat="1">
+    <row r="9" spans="1:27">
       <c r="G9" s="1" cm="1">
         <f t="array" ref="G9" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>7</v>
       </c>
       <c r="H9" s="25" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G9, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>n</v>
       </c>
       <c r="I9" s="24" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G9, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>s</v>
       </c>
       <c r="K9" s="1">
         <v>7</v>
       </c>
       <c r="L9" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G9, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>s</v>
       </c>
       <c r="M9" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G9, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄋ</v>
       </c>
       <c r="O9" s="1">
         <v>7</v>
       </c>
       <c r="P9" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G9, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q9" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G9, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S9" s="1">
         <v>7</v>
       </c>
       <c r="T9" s="2" t="str">
-        <f>I9</f>
+        <f t="shared" si="6"/>
         <v>s</v>
       </c>
       <c r="U9" s="6" t="str">
-        <f>H9</f>
+        <f t="shared" si="7"/>
         <v>n</v>
       </c>
       <c r="V9" s="6" t="str">
@@ -4883,7 +4885,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="1" customFormat="1">
+    <row r="10" spans="1:27">
       <c r="A10" s="23" t="s">
         <v>62</v>
       </c>
@@ -4892,44 +4894,44 @@
         <v>8</v>
       </c>
       <c r="H10" s="29" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G10, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>l</v>
       </c>
       <c r="I10" s="28" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G10, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
       <c r="K10" s="1">
         <v>8</v>
       </c>
       <c r="L10" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G10, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
       <c r="M10" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G10, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄌ</v>
       </c>
       <c r="O10" s="1">
         <v>8</v>
       </c>
       <c r="P10" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G10, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q10" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G10, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S10" s="1">
         <v>8</v>
       </c>
       <c r="T10" s="2" t="str">
-        <f>I10</f>
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
       <c r="U10" s="6" t="str">
-        <f>H10</f>
+        <f t="shared" si="7"/>
         <v>l</v>
       </c>
       <c r="V10" s="6" t="str">
@@ -4951,7 +4953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="1" customFormat="1">
+    <row r="11" spans="1:27">
       <c r="A11" s="30" t="s">
         <v>59</v>
       </c>
@@ -4960,44 +4962,44 @@
         <v>9</v>
       </c>
       <c r="H11" s="27" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G11, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>g</v>
       </c>
       <c r="I11" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G11, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>e</v>
       </c>
       <c r="K11" s="1">
         <v>9</v>
       </c>
       <c r="L11" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G11, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>e</v>
       </c>
       <c r="M11" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G11, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄍ</v>
       </c>
       <c r="O11" s="1">
         <v>9</v>
       </c>
       <c r="P11" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G11, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q11" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G11, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S11" s="1">
         <v>9</v>
       </c>
       <c r="T11" s="2" t="str">
-        <f>I11</f>
+        <f t="shared" si="6"/>
         <v>e</v>
       </c>
       <c r="U11" s="6" t="str">
-        <f>H11</f>
+        <f t="shared" si="7"/>
         <v>g</v>
       </c>
       <c r="V11" s="6" t="str">
@@ -5019,7 +5021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="1" customFormat="1">
+    <row r="12" spans="1:27">
       <c r="A12" s="1">
         <f xml:space="preserve"> SEARCH("|",$A$11,1)</f>
         <v>8</v>
@@ -5029,44 +5031,44 @@
         <v>10</v>
       </c>
       <c r="H12" s="25" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G12, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>k</v>
       </c>
       <c r="I12" s="24" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G12, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>d</v>
       </c>
       <c r="K12" s="1">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G12, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>d</v>
       </c>
       <c r="M12" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G12, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄎ</v>
       </c>
       <c r="O12" s="1">
         <v>10</v>
       </c>
       <c r="P12" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G12, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q12" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G12, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S12" s="1">
         <v>10</v>
       </c>
       <c r="T12" s="2" t="str">
-        <f>I12</f>
+        <f t="shared" si="6"/>
         <v>d</v>
       </c>
       <c r="U12" s="6" t="str">
-        <f>H12</f>
+        <f t="shared" si="7"/>
         <v>k</v>
       </c>
       <c r="V12" s="6" t="str">
@@ -5088,7 +5090,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="1" customFormat="1">
+    <row r="13" spans="1:27">
       <c r="A13" s="1">
         <f xml:space="preserve"> SEARCH("|",$A$11,A12+1)</f>
         <v>52</v>
@@ -5098,44 +5100,44 @@
         <v>11</v>
       </c>
       <c r="H13" s="29" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G13, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>h</v>
       </c>
       <c r="I13" s="28" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G13, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>c</v>
       </c>
       <c r="K13" s="1">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G13, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>c</v>
       </c>
       <c r="M13" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G13, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄏ</v>
       </c>
       <c r="O13" s="1">
         <v>11</v>
       </c>
       <c r="P13" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G13, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q13" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G13, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S13" s="1">
         <v>11</v>
       </c>
       <c r="T13" s="2" t="str">
-        <f>I13</f>
+        <f t="shared" si="6"/>
         <v>c</v>
       </c>
       <c r="U13" s="6" t="str">
-        <f>H13</f>
+        <f t="shared" si="7"/>
         <v>h</v>
       </c>
       <c r="V13" s="6" t="str">
@@ -5157,7 +5159,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="1" customFormat="1">
+    <row r="14" spans="1:27">
       <c r="A14" s="1">
         <f xml:space="preserve"> SEARCH("|",$A$11,A13+1)</f>
         <v>96</v>
@@ -5167,44 +5169,44 @@
         <v>12</v>
       </c>
       <c r="H14" s="27" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G14, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>j</v>
       </c>
       <c r="I14" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G14, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>r</v>
       </c>
       <c r="K14" s="1">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G14, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>r</v>
       </c>
       <c r="M14" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G14, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄐ</v>
       </c>
       <c r="O14" s="1">
         <v>12</v>
       </c>
       <c r="P14" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G14, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q14" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G14, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S14" s="1">
         <v>12</v>
       </c>
       <c r="T14" s="2" t="str">
-        <f>I14</f>
+        <f t="shared" si="6"/>
         <v>r</v>
       </c>
       <c r="U14" s="6" t="str">
-        <f>H14</f>
+        <f t="shared" si="7"/>
         <v>j</v>
       </c>
       <c r="V14" s="6" t="str">
@@ -5226,7 +5228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="1" customFormat="1">
+    <row r="15" spans="1:27">
       <c r="A15" s="14" t="str">
         <f xml:space="preserve"> MID($A$11,A12+1, A13-A12-1)</f>
         <v>1qaz2wsxedcrfv5tgbyhnujm8ik,9ol.0p;/- 6347'</v>
@@ -5240,44 +5242,44 @@
         <v>13</v>
       </c>
       <c r="H15" s="25" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G15, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>q</v>
       </c>
       <c r="I15" s="24" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G15, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>f</v>
       </c>
       <c r="K15" s="1">
         <v>13</v>
       </c>
       <c r="L15" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G15, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>f</v>
       </c>
       <c r="M15" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G15, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄑ</v>
       </c>
       <c r="O15" s="1">
         <v>13</v>
       </c>
       <c r="P15" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G15, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q15" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G15, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S15" s="1">
         <v>13</v>
       </c>
       <c r="T15" s="2" t="str">
-        <f>I15</f>
+        <f t="shared" si="6"/>
         <v>f</v>
       </c>
       <c r="U15" s="6" t="str">
-        <f>H15</f>
+        <f t="shared" si="7"/>
         <v>q</v>
       </c>
       <c r="V15" s="6" t="str">
@@ -5299,7 +5301,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="1" customFormat="1">
+    <row r="16" spans="1:27">
       <c r="A16" s="14" t="str">
         <f xml:space="preserve"> MID($A$11,A13+1, A14-A13-1)</f>
         <v xml:space="preserve">ㄅㄆㄇㄈㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㄓㄔㄕㄖㄗㄘㄙㄧㄨㄩㄚㄛㄜㄝㄞㄟㄠㄡㄢㄣㄤㄥㄦˉˊˇˋ˙ </v>
@@ -5313,44 +5315,44 @@
         <v>14</v>
       </c>
       <c r="H16" s="17" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G16, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>x</v>
       </c>
       <c r="I16" s="16" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G16, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>v</v>
       </c>
       <c r="K16" s="1">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G16, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>v</v>
       </c>
       <c r="M16" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G16, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄒ</v>
       </c>
       <c r="O16" s="1">
         <v>14</v>
       </c>
       <c r="P16" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G16, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q16" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G16, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S16" s="1">
         <v>14</v>
       </c>
       <c r="T16" s="2" t="str">
-        <f>I16</f>
+        <f t="shared" si="6"/>
         <v>v</v>
       </c>
       <c r="U16" s="6" t="str">
-        <f>H16</f>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="V16" s="6" t="str">
@@ -5372,50 +5374,50 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="1" customFormat="1">
+    <row r="17" spans="1:27">
       <c r="G17" s="1" cm="1">
         <f t="array" ref="G17" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>15</v>
       </c>
       <c r="H17" s="27" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G17, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>Z</v>
       </c>
       <c r="I17" s="26" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G17, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K17" s="1">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G17, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M17" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G17, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄓ</v>
       </c>
       <c r="O17" s="1">
         <v>15</v>
       </c>
       <c r="P17" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G17, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q17" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G17, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S17" s="1">
         <v>15</v>
       </c>
       <c r="T17" s="2" t="str">
-        <f>I17</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="U17" s="6" t="str">
-        <f>H17</f>
+        <f t="shared" si="7"/>
         <v>Z</v>
       </c>
       <c r="V17" s="6" t="str">
@@ -5437,50 +5439,50 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="1" customFormat="1">
+    <row r="18" spans="1:27">
       <c r="G18" s="1" cm="1">
         <f t="array" ref="G18" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>16</v>
       </c>
       <c r="H18" s="25" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G18, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="I18" s="24" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G18, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>t</v>
       </c>
       <c r="K18" s="1">
         <v>16</v>
       </c>
       <c r="L18" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G18, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>t</v>
       </c>
       <c r="M18" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G18, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄔ</v>
       </c>
       <c r="O18" s="1">
         <v>16</v>
       </c>
       <c r="P18" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G18, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q18" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G18, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S18" s="1">
         <v>16</v>
       </c>
       <c r="T18" s="2" t="str">
-        <f>I18</f>
+        <f t="shared" si="6"/>
         <v>t</v>
       </c>
       <c r="U18" s="6" t="str">
-        <f>H18</f>
+        <f t="shared" si="7"/>
         <v>C</v>
       </c>
       <c r="V18" s="6" t="str">
@@ -5502,50 +5504,50 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="1" customFormat="1">
+    <row r="19" spans="1:27">
       <c r="G19" s="1" cm="1">
         <f t="array" ref="G19" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>17</v>
       </c>
       <c r="H19" s="17" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G19, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>S</v>
       </c>
       <c r="I19" s="16" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G19, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>g</v>
       </c>
       <c r="K19" s="1">
         <v>17</v>
       </c>
       <c r="L19" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G19, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>g</v>
       </c>
       <c r="M19" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G19, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄕ</v>
       </c>
       <c r="O19" s="1">
         <v>17</v>
       </c>
       <c r="P19" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G19, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q19" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G19, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S19" s="1">
         <v>17</v>
       </c>
       <c r="T19" s="2" t="str">
-        <f>I19</f>
+        <f t="shared" si="6"/>
         <v>g</v>
       </c>
       <c r="U19" s="6" t="str">
-        <f>H19</f>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
       <c r="V19" s="6" t="str">
@@ -5567,7 +5569,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="1" customFormat="1">
+    <row r="20" spans="1:27">
       <c r="A20" s="23" t="s">
         <v>41</v>
       </c>
@@ -5576,44 +5578,44 @@
         <v>18</v>
       </c>
       <c r="H20" s="22" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G20, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>r</v>
       </c>
       <c r="I20" s="21" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G20, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>b</v>
       </c>
       <c r="K20" s="1">
         <v>18</v>
       </c>
       <c r="L20" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G20, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>b</v>
       </c>
       <c r="M20" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G20, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄖ</v>
       </c>
       <c r="O20" s="1">
         <v>18</v>
       </c>
       <c r="P20" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G20, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q20" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G20, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S20" s="1">
         <v>18</v>
       </c>
       <c r="T20" s="2" t="str">
-        <f>I20</f>
+        <f t="shared" si="6"/>
         <v>b</v>
       </c>
       <c r="U20" s="6" t="str">
-        <f>H20</f>
+        <f t="shared" si="7"/>
         <v>r</v>
       </c>
       <c r="V20" s="6" t="str">
@@ -5635,51 +5637,51 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="1" customFormat="1">
+    <row r="21" spans="1:27">
       <c r="A21" s="20"/>
       <c r="G21" s="1" cm="1">
         <f t="array" ref="G21" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>19</v>
       </c>
       <c r="H21" s="19" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G21, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>z</v>
       </c>
       <c r="I21" s="18" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G21, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="K21" s="1">
         <v>19</v>
       </c>
       <c r="L21" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G21, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>y</v>
       </c>
       <c r="M21" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G21, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄗ</v>
       </c>
       <c r="O21" s="1">
         <v>19</v>
       </c>
       <c r="P21" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G21, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q21" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G21, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S21" s="1">
         <v>19</v>
       </c>
       <c r="T21" s="2" t="str">
-        <f>I21</f>
+        <f t="shared" si="6"/>
         <v>y</v>
       </c>
       <c r="U21" s="6" t="str">
-        <f>H21</f>
+        <f t="shared" si="7"/>
         <v>z</v>
       </c>
       <c r="V21" s="6" t="str">
@@ -5701,7 +5703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="1" customFormat="1">
+    <row r="22" spans="1:27">
       <c r="A22" s="1" t="e">
         <f xml:space="preserve"> SEARCH("|",A21,1)</f>
         <v>#VALUE!</v>
@@ -5711,44 +5713,44 @@
         <v>20</v>
       </c>
       <c r="H22" s="17" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G22, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>c</v>
       </c>
       <c r="I22" s="16" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G22, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>h</v>
       </c>
       <c r="K22" s="1">
         <v>20</v>
       </c>
       <c r="L22" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G22, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>h</v>
       </c>
       <c r="M22" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G22, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄘ</v>
       </c>
       <c r="O22" s="1">
         <v>20</v>
       </c>
       <c r="P22" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G22, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q22" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G22, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S22" s="1">
         <v>20</v>
       </c>
       <c r="T22" s="2" t="str">
-        <f>I22</f>
+        <f t="shared" si="6"/>
         <v>h</v>
       </c>
       <c r="U22" s="6" t="str">
-        <f>H22</f>
+        <f t="shared" si="7"/>
         <v>c</v>
       </c>
       <c r="V22" s="6" t="str">
@@ -5770,7 +5772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="1" customFormat="1">
+    <row r="23" spans="1:27">
       <c r="A23" s="1" t="e">
         <f xml:space="preserve"> SEARCH("|",A21,A22+1)</f>
         <v>#VALUE!</v>
@@ -5780,44 +5782,44 @@
         <v>21</v>
       </c>
       <c r="H23" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G23, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>s</v>
       </c>
       <c r="I23" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G23, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>n</v>
       </c>
       <c r="K23" s="1">
         <v>21</v>
       </c>
       <c r="L23" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G23, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>n</v>
       </c>
       <c r="M23" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G23, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄙ</v>
       </c>
       <c r="O23" s="1">
         <v>21</v>
       </c>
       <c r="P23" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G23, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q23" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G23, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S23" s="1">
         <v>21</v>
       </c>
       <c r="T23" s="2" t="str">
-        <f>I23</f>
+        <f t="shared" si="6"/>
         <v>n</v>
       </c>
       <c r="U23" s="6" t="str">
-        <f>H23</f>
+        <f t="shared" si="7"/>
         <v>s</v>
       </c>
       <c r="V23" s="6" t="str">
@@ -5839,7 +5841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="1" customFormat="1">
+    <row r="24" spans="1:27">
       <c r="A24" s="1" t="e">
         <f xml:space="preserve"> SEARCH("|",A21,A23+1)</f>
         <v>#VALUE!</v>
@@ -5849,44 +5851,44 @@
         <v>22</v>
       </c>
       <c r="H24" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G24, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>i</v>
       </c>
       <c r="I24" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G24, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>u</v>
       </c>
       <c r="K24" s="1">
         <v>22</v>
       </c>
       <c r="L24" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G24, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>u</v>
       </c>
       <c r="M24" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G24, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄧ</v>
       </c>
       <c r="O24" s="1">
         <v>22</v>
       </c>
       <c r="P24" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G24, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q24" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G24, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S24" s="1">
         <v>22</v>
       </c>
       <c r="T24" s="2" t="str">
-        <f>I24</f>
+        <f t="shared" si="6"/>
         <v>u</v>
       </c>
       <c r="U24" s="6" t="str">
-        <f>H24</f>
+        <f t="shared" si="7"/>
         <v>i</v>
       </c>
       <c r="V24" s="6" t="str">
@@ -5908,7 +5910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="1" customFormat="1">
+    <row r="25" spans="1:27">
       <c r="A25" s="14" t="e">
         <f xml:space="preserve"> MID(A21,A22+1, A24-A23-1)</f>
         <v>#VALUE!</v>
@@ -5922,44 +5924,44 @@
         <v>23</v>
       </c>
       <c r="H25" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G25, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>u</v>
       </c>
       <c r="I25" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G25, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>j</v>
       </c>
       <c r="K25" s="1">
         <v>23</v>
       </c>
       <c r="L25" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G25, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="M25" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G25, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄨ</v>
       </c>
       <c r="O25" s="1">
         <v>23</v>
       </c>
       <c r="P25" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G25, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q25" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G25, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S25" s="1">
         <v>23</v>
       </c>
       <c r="T25" s="2" t="str">
-        <f>I25</f>
+        <f t="shared" si="6"/>
         <v>j</v>
       </c>
       <c r="U25" s="6" t="str">
-        <f>H25</f>
+        <f t="shared" si="7"/>
         <v>u</v>
       </c>
       <c r="V25" s="6" t="str">
@@ -5981,7 +5983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="1" customFormat="1">
+    <row r="26" spans="1:27">
       <c r="A26" s="14" t="e">
         <f xml:space="preserve"> MID(A21,A23+1, A24-A23-1)</f>
         <v>#VALUE!</v>
@@ -5995,44 +5997,44 @@
         <v>24</v>
       </c>
       <c r="H26" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G26, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>v</v>
       </c>
       <c r="I26" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G26, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>m</v>
       </c>
       <c r="K26" s="1">
         <v>24</v>
       </c>
       <c r="L26" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G26, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>m</v>
       </c>
       <c r="M26" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G26, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄩ</v>
       </c>
       <c r="O26" s="1">
         <v>24</v>
       </c>
       <c r="P26" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G26, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q26" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G26, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S26" s="1">
         <v>24</v>
       </c>
       <c r="T26" s="2" t="str">
-        <f>I26</f>
+        <f t="shared" si="6"/>
         <v>m</v>
       </c>
       <c r="U26" s="6" t="str">
-        <f>H26</f>
+        <f t="shared" si="7"/>
         <v>v</v>
       </c>
       <c r="V26" s="6" t="str">
@@ -6054,50 +6056,50 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="1" customFormat="1">
+    <row r="27" spans="1:27">
       <c r="G27" s="1" cm="1">
         <f t="array" ref="G27" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>25</v>
       </c>
       <c r="H27" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G27, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>a</v>
       </c>
       <c r="I27" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G27, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K27" s="1">
         <v>25</v>
       </c>
       <c r="L27" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G27, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="M27" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G27, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄚ</v>
       </c>
       <c r="O27" s="1">
         <v>25</v>
       </c>
       <c r="P27" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G27, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q27" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G27, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S27" s="1">
         <v>25</v>
       </c>
       <c r="T27" s="2" t="str">
-        <f>I27</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="U27" s="6" t="str">
-        <f>H27</f>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="V27" s="6" t="str">
@@ -6119,50 +6121,50 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="1" customFormat="1">
+    <row r="28" spans="1:27">
       <c r="G28" s="1" cm="1">
         <f t="array" ref="G28" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>26</v>
       </c>
       <c r="H28" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G28, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>o</v>
       </c>
       <c r="I28" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G28, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>i</v>
       </c>
       <c r="K28" s="1">
         <v>26</v>
       </c>
       <c r="L28" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G28, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>i</v>
       </c>
       <c r="M28" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G28, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄛ</v>
       </c>
       <c r="O28" s="1">
         <v>26</v>
       </c>
       <c r="P28" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G28, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q28" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G28, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S28" s="1">
         <v>26</v>
       </c>
       <c r="T28" s="2" t="str">
-        <f>I28</f>
+        <f t="shared" si="6"/>
         <v>i</v>
       </c>
       <c r="U28" s="6" t="str">
-        <f>H28</f>
+        <f t="shared" si="7"/>
         <v>o</v>
       </c>
       <c r="V28" s="6" t="str">
@@ -6184,50 +6186,50 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="1" customFormat="1">
+    <row r="29" spans="1:27">
       <c r="G29" s="1" cm="1">
         <f t="array" ref="G29" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>27</v>
       </c>
       <c r="H29" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G29, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>e</v>
       </c>
       <c r="I29" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G29, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>k</v>
       </c>
       <c r="K29" s="1">
         <v>27</v>
       </c>
       <c r="L29" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G29, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>k</v>
       </c>
       <c r="M29" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G29, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄜ</v>
       </c>
       <c r="O29" s="1">
         <v>27</v>
       </c>
       <c r="P29" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G29, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q29" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G29, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S29" s="1">
         <v>27</v>
       </c>
       <c r="T29" s="2" t="str">
-        <f>I29</f>
+        <f t="shared" si="6"/>
         <v>k</v>
       </c>
       <c r="U29" s="6" t="str">
-        <f>H29</f>
+        <f t="shared" si="7"/>
         <v>e</v>
       </c>
       <c r="V29" s="6" t="str">
@@ -6249,50 +6251,50 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="1" customFormat="1">
+    <row r="30" spans="1:27">
       <c r="G30" s="1" cm="1">
         <f t="array" ref="G30" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>28</v>
       </c>
       <c r="H30" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G30, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>E</v>
       </c>
       <c r="I30" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G30, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>,</v>
       </c>
       <c r="K30" s="1">
         <v>28</v>
       </c>
       <c r="L30" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G30, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>,</v>
       </c>
       <c r="M30" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G30, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄝ</v>
       </c>
       <c r="O30" s="1">
         <v>28</v>
       </c>
       <c r="P30" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G30, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q30" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G30, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S30" s="1">
         <v>28</v>
       </c>
       <c r="T30" s="2" t="str">
-        <f>I30</f>
+        <f t="shared" si="6"/>
         <v>,</v>
       </c>
       <c r="U30" s="6" t="str">
-        <f>H30</f>
+        <f t="shared" si="7"/>
         <v>E</v>
       </c>
       <c r="V30" s="6" t="str">
@@ -6314,50 +6316,50 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="1" customFormat="1">
+    <row r="31" spans="1:27">
       <c r="G31" s="1" cm="1">
         <f t="array" ref="G31" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>29</v>
       </c>
       <c r="H31" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G31, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>A</v>
       </c>
       <c r="I31" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G31, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K31" s="1">
         <v>29</v>
       </c>
       <c r="L31" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G31, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="M31" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G31, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄞ</v>
       </c>
       <c r="O31" s="1">
         <v>29</v>
       </c>
       <c r="P31" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G31, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q31" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G31, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S31" s="1">
         <v>29</v>
       </c>
       <c r="T31" s="2" t="str">
-        <f>I31</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="U31" s="6" t="str">
-        <f>H31</f>
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="V31" s="6" t="str">
@@ -6379,50 +6381,50 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="1" customFormat="1">
+    <row r="32" spans="1:27">
       <c r="G32" s="1" cm="1">
         <f t="array" ref="G32" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>30</v>
       </c>
       <c r="H32" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G32, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>I</v>
       </c>
       <c r="I32" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G32, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>o</v>
       </c>
       <c r="K32" s="1">
         <v>30</v>
       </c>
       <c r="L32" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G32, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>o</v>
       </c>
       <c r="M32" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G32, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄟ</v>
       </c>
       <c r="O32" s="1">
         <v>30</v>
       </c>
       <c r="P32" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G32, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q32" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G32, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S32" s="1">
         <v>30</v>
       </c>
       <c r="T32" s="2" t="str">
-        <f>I32</f>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="U32" s="6" t="str">
-        <f>H32</f>
+        <f t="shared" si="7"/>
         <v>I</v>
       </c>
       <c r="V32" s="6" t="str">
@@ -6444,50 +6446,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="7:27" s="1" customFormat="1">
+    <row r="33" spans="7:27">
       <c r="G33" s="1" cm="1">
         <f t="array" ref="G33" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>31</v>
       </c>
       <c r="H33" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G33, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>O</v>
       </c>
       <c r="I33" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G33, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>l</v>
       </c>
       <c r="K33" s="1">
         <v>31</v>
       </c>
       <c r="L33" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G33, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>l</v>
       </c>
       <c r="M33" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G33, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄠ</v>
       </c>
       <c r="O33" s="1">
         <v>31</v>
       </c>
       <c r="P33" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G33, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q33" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G33, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S33" s="1">
         <v>31</v>
       </c>
       <c r="T33" s="2" t="str">
-        <f>I33</f>
+        <f t="shared" si="6"/>
         <v>l</v>
       </c>
       <c r="U33" s="6" t="str">
-        <f>H33</f>
+        <f t="shared" si="7"/>
         <v>O</v>
       </c>
       <c r="V33" s="6" t="str">
@@ -6509,50 +6511,50 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="7:27" s="1" customFormat="1">
+    <row r="34" spans="7:27">
       <c r="G34" s="1" cm="1">
         <f t="array" ref="G34" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>32</v>
       </c>
       <c r="H34" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G34, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>U</v>
       </c>
       <c r="I34" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G34, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="K34" s="1">
         <v>32</v>
       </c>
       <c r="L34" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G34, 1), "")</f>
+        <f t="shared" si="2"/>
         <v>.</v>
       </c>
       <c r="M34" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G34, 1), "")</f>
+        <f t="shared" si="3"/>
         <v>ㄡ</v>
       </c>
       <c r="O34" s="1">
         <v>32</v>
       </c>
       <c r="P34" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G34, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q34" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G34, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S34" s="1">
         <v>32</v>
       </c>
       <c r="T34" s="2" t="str">
-        <f>I34</f>
+        <f t="shared" si="6"/>
         <v>.</v>
       </c>
       <c r="U34" s="6" t="str">
-        <f>H34</f>
+        <f t="shared" si="7"/>
         <v>U</v>
       </c>
       <c r="V34" s="6" t="str">
@@ -6574,50 +6576,50 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="7:27" s="1" customFormat="1">
+    <row r="35" spans="7:27">
       <c r="G35" s="1" cm="1">
         <f t="array" ref="G35" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>33</v>
       </c>
       <c r="H35" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G35, 1), "")</f>
+        <f t="shared" ref="H35:H57" si="8" xml:space="preserve"> IFERROR( MID($A$6, $G35, 1), "")</f>
         <v>M</v>
       </c>
       <c r="I35" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G35, 1), "")</f>
+        <f t="shared" ref="I35:I57" si="9" xml:space="preserve"> IFERROR( MID($A$7, $G35, 1), "")</f>
         <v>0</v>
       </c>
       <c r="K35" s="1">
         <v>33</v>
       </c>
       <c r="L35" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G35, 1), "")</f>
+        <f t="shared" ref="L35:L57" si="10" xml:space="preserve"> IFERROR( MID($A$15, $G35, 1), "")</f>
         <v>0</v>
       </c>
       <c r="M35" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G35, 1), "")</f>
+        <f t="shared" ref="M35:M57" si="11" xml:space="preserve"> IFERROR( MID($A$16, $G35, 1), "")</f>
         <v>ㄢ</v>
       </c>
       <c r="O35" s="1">
         <v>33</v>
       </c>
       <c r="P35" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G35, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q35" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G35, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S35" s="1">
         <v>33</v>
       </c>
       <c r="T35" s="2" t="str">
-        <f>I35</f>
+        <f t="shared" ref="T35:T57" si="12">I35</f>
         <v>0</v>
       </c>
       <c r="U35" s="6" t="str">
-        <f>H35</f>
+        <f t="shared" ref="U35:U57" si="13">H35</f>
         <v>M</v>
       </c>
       <c r="V35" s="6" t="str">
@@ -6639,50 +6641,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="7:27" s="1" customFormat="1">
+    <row r="36" spans="7:27">
       <c r="G36" s="1" cm="1">
         <f t="array" ref="G36" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>34</v>
       </c>
       <c r="H36" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G36, 1), "")</f>
+        <f t="shared" si="8"/>
         <v>N</v>
       </c>
       <c r="I36" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G36, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>p</v>
       </c>
       <c r="K36" s="1">
         <v>34</v>
       </c>
       <c r="L36" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G36, 1), "")</f>
+        <f t="shared" si="10"/>
         <v>p</v>
       </c>
       <c r="M36" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G36, 1), "")</f>
+        <f t="shared" si="11"/>
         <v>ㄣ</v>
       </c>
       <c r="O36" s="1">
         <v>34</v>
       </c>
       <c r="P36" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G36, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q36" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G36, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S36" s="1">
         <v>34</v>
       </c>
       <c r="T36" s="2" t="str">
-        <f>I36</f>
+        <f t="shared" si="12"/>
         <v>p</v>
       </c>
       <c r="U36" s="6" t="str">
-        <f>H36</f>
+        <f t="shared" si="13"/>
         <v>N</v>
       </c>
       <c r="V36" s="6" t="str">
@@ -6704,50 +6706,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="7:27" s="1" customFormat="1">
+    <row r="37" spans="7:27">
       <c r="G37" s="1" cm="1">
         <f t="array" ref="G37" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>35</v>
       </c>
       <c r="H37" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G37, 1), "")</f>
+        <f t="shared" si="8"/>
         <v>K</v>
       </c>
       <c r="I37" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G37, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>;</v>
       </c>
       <c r="K37" s="1">
         <v>35</v>
       </c>
       <c r="L37" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G37, 1), "")</f>
+        <f t="shared" si="10"/>
         <v>;</v>
       </c>
       <c r="M37" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G37, 1), "")</f>
+        <f t="shared" si="11"/>
         <v>ㄤ</v>
       </c>
       <c r="O37" s="1">
         <v>35</v>
       </c>
       <c r="P37" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G37, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q37" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G37, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S37" s="1">
         <v>35</v>
       </c>
       <c r="T37" s="2" t="str">
-        <f>I37</f>
+        <f t="shared" si="12"/>
         <v>;</v>
       </c>
       <c r="U37" s="6" t="str">
-        <f>H37</f>
+        <f t="shared" si="13"/>
         <v>K</v>
       </c>
       <c r="V37" s="6" t="str">
@@ -6769,50 +6771,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="7:27" s="1" customFormat="1">
+    <row r="38" spans="7:27">
       <c r="G38" s="1" cm="1">
         <f t="array" ref="G38" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>36</v>
       </c>
       <c r="H38" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G38, 1), "")</f>
+        <f t="shared" si="8"/>
         <v>G</v>
       </c>
       <c r="I38" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G38, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>/</v>
       </c>
       <c r="K38" s="1">
         <v>36</v>
       </c>
       <c r="L38" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G38, 1), "")</f>
+        <f t="shared" si="10"/>
         <v>/</v>
       </c>
       <c r="M38" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G38, 1), "")</f>
+        <f t="shared" si="11"/>
         <v>ㄥ</v>
       </c>
       <c r="O38" s="1">
         <v>36</v>
       </c>
       <c r="P38" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G38, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q38" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G38, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S38" s="1">
         <v>36</v>
       </c>
       <c r="T38" s="2" t="str">
-        <f>I38</f>
+        <f t="shared" si="12"/>
         <v>/</v>
       </c>
       <c r="U38" s="6" t="str">
-        <f>H38</f>
+        <f t="shared" si="13"/>
         <v>G</v>
       </c>
       <c r="V38" s="6" t="str">
@@ -6834,50 +6836,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="7:27" s="1" customFormat="1">
+    <row r="39" spans="7:27">
       <c r="G39" s="1" cm="1">
         <f t="array" ref="G39" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>37</v>
       </c>
       <c r="H39" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G39, 1), "")</f>
+        <f t="shared" si="8"/>
         <v>R</v>
       </c>
       <c r="I39" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G39, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="K39" s="1">
         <v>37</v>
       </c>
       <c r="L39" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G39, 1), "")</f>
+        <f t="shared" si="10"/>
         <v>-</v>
       </c>
       <c r="M39" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G39, 1), "")</f>
+        <f t="shared" si="11"/>
         <v>ㄦ</v>
       </c>
       <c r="O39" s="1">
         <v>37</v>
       </c>
       <c r="P39" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G39, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q39" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G39, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S39" s="1">
         <v>37</v>
       </c>
       <c r="T39" s="2" t="str">
-        <f>I39</f>
+        <f t="shared" si="12"/>
         <v>-</v>
       </c>
       <c r="U39" s="6" t="str">
-        <f>H39</f>
+        <f t="shared" si="13"/>
         <v>R</v>
       </c>
       <c r="V39" s="6" t="str">
@@ -6899,50 +6901,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="7:27" s="1" customFormat="1">
+    <row r="40" spans="7:27">
       <c r="G40" s="1" cm="1">
         <f t="array" ref="G40" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>38</v>
       </c>
       <c r="H40" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G40, 1), "")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I40" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G40, 1), "")</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K40" s="1">
         <v>38</v>
       </c>
       <c r="L40" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G40, 1), "")</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M40" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G40, 1), "")</f>
+        <f t="shared" si="11"/>
         <v>ˉ</v>
       </c>
       <c r="O40" s="1">
         <v>38</v>
       </c>
       <c r="P40" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G40, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q40" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G40, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S40" s="1">
         <v>38</v>
       </c>
       <c r="T40" s="2" t="str">
-        <f>I40</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U40" s="6" t="str">
-        <f>H40</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V40" s="6" t="str">
@@ -6962,50 +6964,50 @@
       </c>
       <c r="AA40" s="9"/>
     </row>
-    <row r="41" spans="7:27" s="1" customFormat="1">
+    <row r="41" spans="7:27">
       <c r="G41" s="1" cm="1">
         <f t="array" ref="G41" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>39</v>
       </c>
       <c r="H41" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G41, 1), "")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I41" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G41, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="K41" s="1">
         <v>39</v>
       </c>
       <c r="L41" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G41, 1), "")</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="M41" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G41, 1), "")</f>
+        <f t="shared" si="11"/>
         <v>ˊ</v>
       </c>
       <c r="O41" s="1">
         <v>39</v>
       </c>
       <c r="P41" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G41, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q41" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G41, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S41" s="1">
         <v>39</v>
       </c>
       <c r="T41" s="2" t="str">
-        <f>I41</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="U41" s="6" t="str">
-        <f>H41</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="V41" s="6" t="str">
@@ -7025,50 +7027,50 @@
       </c>
       <c r="AA41" s="9"/>
     </row>
-    <row r="42" spans="7:27" s="1" customFormat="1">
+    <row r="42" spans="7:27">
       <c r="G42" s="1" cm="1">
         <f t="array" ref="G42" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>40</v>
       </c>
       <c r="H42" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G42, 1), "")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="I42" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G42, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="K42" s="1">
         <v>40</v>
       </c>
       <c r="L42" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G42, 1), "")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="M42" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G42, 1), "")</f>
+        <f t="shared" si="11"/>
         <v>ˇ</v>
       </c>
       <c r="O42" s="1">
         <v>40</v>
       </c>
       <c r="P42" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G42, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q42" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G42, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S42" s="1">
         <v>40</v>
       </c>
       <c r="T42" s="2" t="str">
-        <f>I42</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="U42" s="6" t="str">
-        <f>H42</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="V42" s="6" t="str">
@@ -7088,50 +7090,50 @@
       </c>
       <c r="AA42" s="9"/>
     </row>
-    <row r="43" spans="7:27" s="1" customFormat="1">
+    <row r="43" spans="7:27">
       <c r="G43" s="1" cm="1">
         <f t="array" ref="G43" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>41</v>
       </c>
       <c r="H43" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G43, 1), "")</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="I43" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G43, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K43" s="1">
         <v>41</v>
       </c>
       <c r="L43" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G43, 1), "")</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="M43" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G43, 1), "")</f>
+        <f t="shared" si="11"/>
         <v>ˋ</v>
       </c>
       <c r="O43" s="1">
         <v>41</v>
       </c>
       <c r="P43" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G43, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q43" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G43, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S43" s="1">
         <v>41</v>
       </c>
       <c r="T43" s="2" t="str">
-        <f>I43</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="U43" s="6" t="str">
-        <f>H43</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="V43" s="6" t="str">
@@ -7151,50 +7153,50 @@
       </c>
       <c r="AA43" s="9"/>
     </row>
-    <row r="44" spans="7:27" s="1" customFormat="1">
+    <row r="44" spans="7:27">
       <c r="G44" s="1" cm="1">
         <f t="array" ref="G44" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>42</v>
       </c>
       <c r="H44" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G44, 1), "")</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="I44" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G44, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="K44" s="1">
         <v>42</v>
       </c>
       <c r="L44" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G44, 1), "")</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="M44" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G44, 1), "")</f>
+        <f t="shared" si="11"/>
         <v>˙</v>
       </c>
       <c r="O44" s="1">
         <v>42</v>
       </c>
       <c r="P44" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$21, $G44, 1), "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q44" s="12" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$22, $G44, 1), "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S44" s="1">
         <v>42</v>
       </c>
       <c r="T44" s="2" t="str">
-        <f>I44</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="U44" s="6" t="str">
-        <f>H44</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="V44" s="6" t="str">
@@ -7214,39 +7216,40 @@
       </c>
       <c r="AA44" s="9"/>
     </row>
-    <row r="45" spans="7:27" s="1" customFormat="1">
+    <row r="45" spans="7:27">
       <c r="G45" s="1" cm="1">
         <f t="array" ref="G45" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>43</v>
       </c>
       <c r="H45" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G45, 1), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I45" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G45, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K45" s="1">
         <v>43</v>
       </c>
       <c r="L45" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G45, 1), "")</f>
+        <f t="shared" si="10"/>
         <v>'</v>
       </c>
       <c r="M45" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G45, 1), "")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="Q45" s="1"/>
       <c r="S45" s="1">
         <v>43</v>
       </c>
       <c r="T45" s="2" t="str">
-        <f>I45</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U45" s="6" t="str">
-        <f>H45</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V45" s="6" t="str">
@@ -7257,42 +7260,40 @@
         <f xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</f>
         <v/>
       </c>
-      <c r="Y45"/>
     </row>
-    <row r="46" spans="7:27" s="1" customFormat="1">
+    <row r="46" spans="7:27">
       <c r="G46" s="1" cm="1">
         <f t="array" ref="G46" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>44</v>
       </c>
       <c r="H46" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G46, 1), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I46" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G46, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K46" s="1">
         <v>44</v>
       </c>
       <c r="L46" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G46, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M46" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G46, 1), "")</f>
-        <v/>
-      </c>
-      <c r="Q46" s="2"/>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="S46" s="1">
         <v>44</v>
       </c>
       <c r="T46" s="2" t="str">
-        <f>I46</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U46" s="6" t="str">
-        <f>H46</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V46" s="6" t="str">
@@ -7303,42 +7304,40 @@
         <f xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</f>
         <v/>
       </c>
-      <c r="Y46"/>
     </row>
-    <row r="47" spans="7:27" s="1" customFormat="1">
+    <row r="47" spans="7:27">
       <c r="G47" s="1" cm="1">
         <f t="array" ref="G47" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>45</v>
       </c>
       <c r="H47" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G47, 1), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I47" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G47, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K47" s="1">
         <v>45</v>
       </c>
       <c r="L47" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G47, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M47" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G47, 1), "")</f>
-        <v/>
-      </c>
-      <c r="Q47" s="2"/>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="S47" s="1">
         <v>45</v>
       </c>
       <c r="T47" s="2" t="str">
-        <f>I47</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U47" s="6" t="str">
-        <f>H47</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V47" s="6" t="str">
@@ -7349,42 +7348,40 @@
         <f xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</f>
         <v/>
       </c>
-      <c r="Y47"/>
     </row>
-    <row r="48" spans="7:27" s="1" customFormat="1">
+    <row r="48" spans="7:27">
       <c r="G48" s="1" cm="1">
         <f t="array" ref="G48" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>46</v>
       </c>
       <c r="H48" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G48, 1), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I48" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G48, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K48" s="1">
         <v>46</v>
       </c>
       <c r="L48" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G48, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M48" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G48, 1), "")</f>
-        <v/>
-      </c>
-      <c r="Q48" s="2"/>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="S48" s="1">
         <v>46</v>
       </c>
       <c r="T48" s="2" t="str">
-        <f>I48</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U48" s="6" t="str">
-        <f>H48</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V48" s="6" t="str">
@@ -7395,42 +7392,40 @@
         <f xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</f>
         <v/>
       </c>
-      <c r="Y48"/>
     </row>
-    <row r="49" spans="7:25" s="1" customFormat="1">
+    <row r="49" spans="7:23">
       <c r="G49" s="1" cm="1">
         <f t="array" ref="G49" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>47</v>
       </c>
       <c r="H49" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G49, 1), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I49" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G49, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K49" s="1">
         <v>47</v>
       </c>
       <c r="L49" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G49, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M49" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G49, 1), "")</f>
-        <v/>
-      </c>
-      <c r="Q49" s="2"/>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="S49" s="1">
         <v>47</v>
       </c>
       <c r="T49" s="2" t="str">
-        <f>I49</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U49" s="6" t="str">
-        <f>H49</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V49" s="6" t="str">
@@ -7441,42 +7436,40 @@
         <f xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</f>
         <v/>
       </c>
-      <c r="Y49"/>
     </row>
-    <row r="50" spans="7:25" s="1" customFormat="1">
+    <row r="50" spans="7:23">
       <c r="G50" s="1" cm="1">
         <f t="array" ref="G50" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>48</v>
       </c>
       <c r="H50" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G50, 1), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I50" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G50, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K50" s="1">
         <v>48</v>
       </c>
       <c r="L50" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G50, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M50" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G50, 1), "")</f>
-        <v/>
-      </c>
-      <c r="Q50" s="2"/>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="S50" s="1">
         <v>48</v>
       </c>
       <c r="T50" s="2" t="str">
-        <f>I50</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U50" s="6" t="str">
-        <f>H50</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V50" s="6" t="str">
@@ -7487,42 +7480,40 @@
         <f xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</f>
         <v/>
       </c>
-      <c r="Y50"/>
     </row>
-    <row r="51" spans="7:25" s="1" customFormat="1">
+    <row r="51" spans="7:23">
       <c r="G51" s="1" cm="1">
         <f t="array" ref="G51" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>49</v>
       </c>
       <c r="H51" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G51, 1), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I51" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G51, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K51" s="1">
         <v>49</v>
       </c>
       <c r="L51" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G51, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M51" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G51, 1), "")</f>
-        <v/>
-      </c>
-      <c r="Q51" s="2"/>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="S51" s="1">
         <v>49</v>
       </c>
       <c r="T51" s="2" t="str">
-        <f>I51</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U51" s="6" t="str">
-        <f>H51</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V51" s="6" t="str">
@@ -7533,42 +7524,40 @@
         <f xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</f>
         <v/>
       </c>
-      <c r="Y51"/>
     </row>
-    <row r="52" spans="7:25" s="1" customFormat="1">
+    <row r="52" spans="7:23">
       <c r="G52" s="1" cm="1">
         <f t="array" ref="G52" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>50</v>
       </c>
       <c r="H52" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G52, 1), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I52" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G52, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K52" s="1">
         <v>50</v>
       </c>
       <c r="L52" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G52, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M52" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G52, 1), "")</f>
-        <v/>
-      </c>
-      <c r="Q52" s="2"/>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="S52" s="1">
         <v>50</v>
       </c>
       <c r="T52" s="2" t="str">
-        <f>I52</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U52" s="6" t="str">
-        <f>H52</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V52" s="6" t="str">
@@ -7579,42 +7568,40 @@
         <f xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</f>
         <v/>
       </c>
-      <c r="Y52"/>
     </row>
-    <row r="53" spans="7:25" s="1" customFormat="1">
+    <row r="53" spans="7:23">
       <c r="G53" s="1" cm="1">
         <f t="array" ref="G53" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>51</v>
       </c>
       <c r="H53" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G53, 1), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I53" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G53, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K53" s="1">
         <v>51</v>
       </c>
       <c r="L53" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G53, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M53" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G53, 1), "")</f>
-        <v/>
-      </c>
-      <c r="Q53" s="2"/>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="S53" s="1">
         <v>51</v>
       </c>
       <c r="T53" s="2" t="str">
-        <f>I53</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U53" s="6" t="str">
-        <f>H53</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V53" s="6" t="str">
@@ -7625,42 +7612,40 @@
         <f xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</f>
         <v/>
       </c>
-      <c r="Y53"/>
     </row>
-    <row r="54" spans="7:25" s="1" customFormat="1">
+    <row r="54" spans="7:23">
       <c r="G54" s="1" cm="1">
         <f t="array" ref="G54" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>52</v>
       </c>
       <c r="H54" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G54, 1), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I54" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G54, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K54" s="1">
         <v>52</v>
       </c>
       <c r="L54" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G54, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M54" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G54, 1), "")</f>
-        <v/>
-      </c>
-      <c r="Q54" s="2"/>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="S54" s="1">
         <v>52</v>
       </c>
       <c r="T54" s="2" t="str">
-        <f>I54</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U54" s="6" t="str">
-        <f>H54</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V54" s="6" t="str">
@@ -7671,42 +7656,40 @@
         <f xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</f>
         <v/>
       </c>
-      <c r="Y54"/>
     </row>
-    <row r="55" spans="7:25" s="1" customFormat="1">
+    <row r="55" spans="7:23">
       <c r="G55" s="1" cm="1">
         <f t="array" ref="G55" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>53</v>
       </c>
       <c r="H55" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G55, 1), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I55" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G55, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K55" s="1">
         <v>53</v>
       </c>
       <c r="L55" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G55, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M55" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G55, 1), "")</f>
-        <v/>
-      </c>
-      <c r="Q55" s="2"/>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="S55" s="1">
         <v>53</v>
       </c>
       <c r="T55" s="2" t="str">
-        <f>I55</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U55" s="6" t="str">
-        <f>H55</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V55" s="6" t="str">
@@ -7717,42 +7700,40 @@
         <f xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</f>
         <v/>
       </c>
-      <c r="Y55"/>
     </row>
-    <row r="56" spans="7:25" s="1" customFormat="1">
+    <row r="56" spans="7:23">
       <c r="G56" s="1" cm="1">
         <f t="array" ref="G56" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>54</v>
       </c>
       <c r="H56" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G56, 1), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I56" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G56, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K56" s="1">
         <v>54</v>
       </c>
       <c r="L56" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G56, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M56" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G56, 1), "")</f>
-        <v/>
-      </c>
-      <c r="Q56" s="2"/>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="S56" s="1">
         <v>54</v>
       </c>
       <c r="T56" s="2" t="str">
-        <f>I56</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U56" s="6" t="str">
-        <f>H56</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V56" s="6" t="str">
@@ -7763,42 +7744,40 @@
         <f xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</f>
         <v/>
       </c>
-      <c r="Y56"/>
     </row>
-    <row r="57" spans="7:25" s="1" customFormat="1">
+    <row r="57" spans="7:23">
       <c r="G57" s="1" cm="1">
         <f t="array" ref="G57" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>55</v>
       </c>
       <c r="H57" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$6, $G57, 1), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I57" s="8" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$7, $G57, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K57" s="1">
         <v>55</v>
       </c>
       <c r="L57" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$15, $G57, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M57" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$16, $G57, 1), "")</f>
-        <v/>
-      </c>
-      <c r="Q57" s="2"/>
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
       <c r="S57" s="1">
         <v>55</v>
       </c>
       <c r="T57" s="2" t="str">
-        <f>I57</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U57" s="6" t="str">
-        <f>H57</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="V57" s="6" t="str">
@@ -7809,200 +7788,103 @@
         <f xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</f>
         <v/>
       </c>
-      <c r="Y57"/>
     </row>
-    <row r="58" spans="7:25" s="1" customFormat="1">
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="3"/>
-      <c r="Q58" s="2"/>
+    <row r="58" spans="7:23">
       <c r="T58" s="2"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
       <c r="W58" s="2"/>
-      <c r="Y58"/>
     </row>
-    <row r="59" spans="7:25" s="1" customFormat="1">
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="3"/>
-      <c r="Q59" s="2"/>
+    <row r="59" spans="7:23">
       <c r="T59" s="2"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
       <c r="W59" s="2"/>
-      <c r="Y59"/>
     </row>
-    <row r="60" spans="7:25" s="1" customFormat="1">
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="3"/>
-      <c r="Q60" s="2"/>
+    <row r="60" spans="7:23">
       <c r="T60" s="2"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
       <c r="W60" s="2"/>
-      <c r="Y60"/>
     </row>
-    <row r="61" spans="7:25" s="1" customFormat="1">
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="3"/>
-      <c r="Q61" s="2"/>
+    <row r="61" spans="7:23">
       <c r="T61" s="2"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
       <c r="W61" s="2"/>
-      <c r="Y61"/>
     </row>
-    <row r="62" spans="7:25" s="1" customFormat="1">
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="3"/>
-      <c r="Q62" s="2"/>
+    <row r="62" spans="7:23">
       <c r="T62" s="2"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
       <c r="W62" s="2"/>
-      <c r="Y62"/>
     </row>
-    <row r="63" spans="7:25" s="1" customFormat="1">
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="3"/>
-      <c r="Q63" s="2"/>
+    <row r="63" spans="7:23">
       <c r="T63" s="2"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
       <c r="W63" s="2"/>
-      <c r="Y63"/>
     </row>
-    <row r="64" spans="7:25" s="1" customFormat="1">
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="3"/>
-      <c r="Q64" s="2"/>
+    <row r="64" spans="7:23">
       <c r="T64" s="2"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
       <c r="W64" s="2"/>
-      <c r="Y64"/>
     </row>
-    <row r="65" spans="8:25" s="1" customFormat="1">
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="3"/>
-      <c r="Q65" s="2"/>
+    <row r="65" spans="20:23">
       <c r="T65" s="2"/>
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
       <c r="W65" s="2"/>
-      <c r="Y65"/>
     </row>
-    <row r="66" spans="8:25" s="1" customFormat="1">
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="3"/>
-      <c r="Q66" s="2"/>
+    <row r="66" spans="20:23">
       <c r="T66" s="2"/>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
       <c r="W66" s="2"/>
-      <c r="Y66"/>
     </row>
-    <row r="67" spans="8:25" s="1" customFormat="1">
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="3"/>
-      <c r="Q67" s="2"/>
+    <row r="67" spans="20:23">
       <c r="T67" s="2"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
       <c r="W67" s="2"/>
-      <c r="Y67"/>
     </row>
-    <row r="68" spans="8:25" s="1" customFormat="1">
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="3"/>
-      <c r="Q68" s="2"/>
+    <row r="68" spans="20:23">
       <c r="T68" s="2"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
       <c r="W68" s="2"/>
-      <c r="Y68"/>
     </row>
-    <row r="69" spans="8:25" s="1" customFormat="1">
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="3"/>
-      <c r="Q69" s="2"/>
+    <row r="69" spans="20:23">
       <c r="T69" s="2"/>
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
       <c r="W69" s="2"/>
-      <c r="Y69"/>
     </row>
-    <row r="70" spans="8:25" s="1" customFormat="1">
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="3"/>
-      <c r="Q70" s="2"/>
+    <row r="70" spans="20:23">
       <c r="T70" s="2"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
       <c r="W70" s="2"/>
-      <c r="Y70"/>
     </row>
-    <row r="72" spans="8:25" s="1" customFormat="1">
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="3"/>
-      <c r="Q72" s="2"/>
+    <row r="72" spans="20:23">
       <c r="U72" s="1" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(按鍵編碼)</f>
         <v>bpmfdtnlgkhjqxZCSrzcsiuvaoeEAIOUMNKGR12345</v>
       </c>
-      <c r="Y72"/>
     </row>
-    <row r="73" spans="8:25" s="1" customFormat="1">
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="3"/>
-      <c r="Q73" s="2"/>
+    <row r="73" spans="20:23">
       <c r="U73" s="1" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(方音符號)</f>
         <v>ㄅㄆㄇㄈㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㄓㄔㄕㄖㄗㄘㄙㄧㄨㄩㄚㄛㄜㄝㄞㄟㄠㄡㄢㄣㄤㄥㄦˉˊˇˋ˙</v>
       </c>
-      <c r="Y73"/>
     </row>
-    <row r="74" spans="8:25" s="1" customFormat="1">
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="3"/>
-      <c r="Q74" s="2"/>
+    <row r="74" spans="20:23">
       <c r="U74" s="5" t="str">
         <f xml:space="preserve"> "xlit|" &amp; U72 &amp; "|" &amp; U73 &amp; "|"</f>
         <v>xlit|bpmfdtnlgkhjqxZCSrzcsiuvaoeEAIOUMNKGR12345|ㄅㄆㄇㄈㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㄓㄔㄕㄖㄗㄘㄙㄧㄨㄩㄚㄛㄜㄝㄞㄟㄠㄡㄢㄣㄤㄥㄦˉˊˇˋ˙|</v>
       </c>
       <c r="V74" s="5"/>
-      <c r="Y74"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8085,180 +7967,180 @@
       <c r="AQ1" s="80"/>
       <c r="AR1" s="80"/>
       <c r="AS1" s="80"/>
-      <c r="AT1" s="140"/>
-      <c r="AU1" s="140"/>
+      <c r="AT1" s="120"/>
+      <c r="AU1" s="120"/>
     </row>
-    <row r="2" spans="1:65" s="107" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A2" s="161"/>
-      <c r="B2" s="160" t="s">
+    <row r="2" spans="1:65" s="99" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A2" s="141"/>
+      <c r="B2" s="140" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="157" cm="1">
+      <c r="C2" s="139"/>
+      <c r="D2" s="137" cm="1">
         <f t="array" ref="D2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="157" cm="1">
+      <c r="E2" s="137" cm="1">
         <f t="array" ref="E2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>2</v>
       </c>
-      <c r="F2" s="157" cm="1">
+      <c r="F2" s="137" cm="1">
         <f t="array" ref="F2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>3</v>
       </c>
-      <c r="G2" s="158" cm="1">
+      <c r="G2" s="138" cm="1">
         <f t="array" ref="G2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="158" cm="1">
+      <c r="H2" s="138" cm="1">
         <f t="array" ref="H2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>5</v>
       </c>
-      <c r="I2" s="158" cm="1">
+      <c r="I2" s="138" cm="1">
         <f t="array" ref="I2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>6</v>
       </c>
-      <c r="J2" s="158" cm="1">
+      <c r="J2" s="138" cm="1">
         <f t="array" ref="J2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>7</v>
       </c>
-      <c r="K2" s="157" cm="1">
+      <c r="K2" s="137" cm="1">
         <f t="array" ref="K2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>8</v>
       </c>
-      <c r="L2" s="157" cm="1">
+      <c r="L2" s="137" cm="1">
         <f t="array" ref="L2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>9</v>
       </c>
-      <c r="M2" s="157" cm="1">
+      <c r="M2" s="137" cm="1">
         <f t="array" ref="M2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>10</v>
       </c>
-      <c r="N2" s="158" cm="1">
+      <c r="N2" s="138" cm="1">
         <f t="array" ref="N2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>11</v>
       </c>
-      <c r="O2" s="157" cm="1">
+      <c r="O2" s="137" cm="1">
         <f t="array" ref="O2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>12</v>
       </c>
-      <c r="P2" s="158" cm="1">
+      <c r="P2" s="138" cm="1">
         <f t="array" ref="P2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>13</v>
       </c>
-      <c r="Q2" s="158" cm="1">
+      <c r="Q2" s="138" cm="1">
         <f t="array" ref="Q2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>14</v>
       </c>
-      <c r="R2" s="158" cm="1">
+      <c r="R2" s="138" cm="1">
         <f t="array" ref="R2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>15</v>
       </c>
-      <c r="S2" s="158" cm="1">
+      <c r="S2" s="138" cm="1">
         <f t="array" ref="S2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>16</v>
       </c>
-      <c r="T2" s="157" cm="1">
+      <c r="T2" s="137" cm="1">
         <f t="array" ref="T2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>17</v>
       </c>
-      <c r="U2" s="157" cm="1">
+      <c r="U2" s="137" cm="1">
         <f t="array" ref="U2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>18</v>
       </c>
-      <c r="V2" s="157" cm="1">
+      <c r="V2" s="137" cm="1">
         <f t="array" ref="V2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>19</v>
       </c>
-      <c r="W2" s="157" cm="1">
+      <c r="W2" s="137" cm="1">
         <f t="array" ref="W2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>20</v>
       </c>
-      <c r="X2" s="157" cm="1">
+      <c r="X2" s="137" cm="1">
         <f t="array" ref="X2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>21</v>
       </c>
-      <c r="Y2" s="157" cm="1">
+      <c r="Y2" s="137" cm="1">
         <f t="array" ref="Y2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>22</v>
       </c>
-      <c r="Z2" s="157" cm="1">
+      <c r="Z2" s="137" cm="1">
         <f t="array" ref="Z2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>23</v>
       </c>
-      <c r="AA2" s="157" cm="1">
+      <c r="AA2" s="137" cm="1">
         <f t="array" ref="AA2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>24</v>
       </c>
-      <c r="AB2" s="157" cm="1">
+      <c r="AB2" s="137" cm="1">
         <f t="array" ref="AB2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>25</v>
       </c>
-      <c r="AC2" s="157" cm="1">
+      <c r="AC2" s="137" cm="1">
         <f t="array" ref="AC2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>26</v>
       </c>
-      <c r="AD2" s="157" cm="1">
+      <c r="AD2" s="137" cm="1">
         <f t="array" ref="AD2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>27</v>
       </c>
-      <c r="AE2" s="157" cm="1">
+      <c r="AE2" s="137" cm="1">
         <f t="array" ref="AE2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>28</v>
       </c>
-      <c r="AF2" s="157" cm="1">
+      <c r="AF2" s="137" cm="1">
         <f t="array" ref="AF2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>29</v>
       </c>
-      <c r="AG2" s="157" cm="1">
+      <c r="AG2" s="137" cm="1">
         <f t="array" ref="AG2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>30</v>
       </c>
-      <c r="AH2" s="157" cm="1">
+      <c r="AH2" s="137" cm="1">
         <f t="array" ref="AH2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>31</v>
       </c>
-      <c r="AI2" s="157" cm="1">
+      <c r="AI2" s="137" cm="1">
         <f t="array" ref="AI2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>32</v>
       </c>
-      <c r="AJ2" s="157" cm="1">
+      <c r="AJ2" s="137" cm="1">
         <f t="array" ref="AJ2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>33</v>
       </c>
-      <c r="AK2" s="157" cm="1">
+      <c r="AK2" s="137" cm="1">
         <f t="array" ref="AK2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>34</v>
       </c>
-      <c r="AL2" s="157" cm="1">
+      <c r="AL2" s="137" cm="1">
         <f t="array" ref="AL2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>35</v>
       </c>
-      <c r="AM2" s="157" cm="1">
+      <c r="AM2" s="137" cm="1">
         <f t="array" ref="AM2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>36</v>
       </c>
-      <c r="AN2" s="157" cm="1">
+      <c r="AN2" s="137" cm="1">
         <f t="array" ref="AN2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>37</v>
       </c>
-      <c r="AO2" s="157" cm="1">
+      <c r="AO2" s="137" cm="1">
         <f t="array" ref="AO2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>38</v>
       </c>
-      <c r="AP2" s="157" cm="1">
+      <c r="AP2" s="137" cm="1">
         <f t="array" ref="AP2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>39</v>
       </c>
-      <c r="AQ2" s="157" cm="1">
+      <c r="AQ2" s="137" cm="1">
         <f t="array" ref="AQ2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>40</v>
       </c>
-      <c r="AR2" s="157" cm="1">
+      <c r="AR2" s="137" cm="1">
         <f t="array" ref="AR2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>41</v>
       </c>
-      <c r="AS2" s="157" cm="1">
+      <c r="AS2" s="137" cm="1">
         <f t="array" ref="AS2" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>42</v>
       </c>
@@ -8274,309 +8156,309 @@
       <c r="BM2" s="38"/>
     </row>
     <row r="3" spans="1:65" ht="40.5" customHeight="1">
-      <c r="A3" s="144"/>
-      <c r="B3" s="156" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="136" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="154" t="s">
+      <c r="C3" s="135"/>
+      <c r="D3" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="154" t="s">
+      <c r="E3" s="134" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="154" t="s">
+      <c r="F3" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="154" t="s">
+      <c r="G3" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="154" t="s">
+      <c r="H3" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="154" t="s">
+      <c r="I3" s="134" t="s">
         <v>226</v>
       </c>
-      <c r="J3" s="154" t="s">
+      <c r="J3" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="154" t="s">
+      <c r="K3" s="134" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="154" t="s">
+      <c r="L3" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="M3" s="154" t="s">
+      <c r="M3" s="134" t="s">
         <v>214</v>
       </c>
-      <c r="N3" s="154" t="s">
+      <c r="N3" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="O3" s="154" t="s">
+      <c r="O3" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="P3" s="154" t="s">
+      <c r="P3" s="134" t="s">
         <v>207</v>
       </c>
-      <c r="Q3" s="154" t="s">
+      <c r="Q3" s="134" t="s">
         <v>158</v>
       </c>
-      <c r="R3" s="154" t="s">
+      <c r="R3" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="154" t="s">
+      <c r="S3" s="134" t="s">
         <v>193</v>
       </c>
-      <c r="T3" s="154" t="s">
+      <c r="T3" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="U3" s="154" t="s">
+      <c r="U3" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="V3" s="154" t="s">
+      <c r="V3" s="134" t="s">
         <v>180</v>
       </c>
-      <c r="W3" s="154" t="s">
+      <c r="W3" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="X3" s="154" t="s">
+      <c r="X3" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="Y3" s="154" t="s">
+      <c r="Y3" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="154" t="s">
+      <c r="Z3" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="AA3" s="154" t="s">
+      <c r="AA3" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="AB3" s="154" t="s">
+      <c r="AB3" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="AC3" s="154" t="s">
+      <c r="AC3" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" s="154" t="s">
+      <c r="AD3" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="AE3" s="154" t="s">
+      <c r="AE3" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="AF3" s="154" t="s">
+      <c r="AF3" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="AG3" s="154" t="s">
+      <c r="AG3" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="AH3" s="154" t="s">
+      <c r="AH3" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="AI3" s="154" t="s">
+      <c r="AI3" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="AJ3" s="154" t="s">
+      <c r="AJ3" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="AK3" s="154" t="s">
+      <c r="AK3" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="AL3" s="154" t="s">
+      <c r="AL3" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="AM3" s="154" t="s">
+      <c r="AM3" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="AN3" s="154" t="s">
+      <c r="AN3" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="AO3" s="154" t="s">
+      <c r="AO3" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="AP3" s="154" t="s">
+      <c r="AP3" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="AQ3" s="154" t="s">
+      <c r="AQ3" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="AR3" s="154" t="s">
+      <c r="AR3" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="AS3" s="154" t="s">
+      <c r="AS3" s="134" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:65" s="107" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A4" s="144"/>
-      <c r="B4" s="153" t="s">
+    <row r="4" spans="1:65" s="99" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A4" s="124"/>
+      <c r="B4" s="133" t="s">
         <v>291</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="151" t="str" cm="1">
+      <c r="C4" s="132"/>
+      <c r="D4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + D$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄅ</v>
       </c>
-      <c r="E4" s="151" t="str" cm="1">
+      <c r="E4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + E$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄆ</v>
       </c>
-      <c r="F4" s="151" t="str" cm="1">
+      <c r="F4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + F$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄇ</v>
       </c>
-      <c r="G4" s="151" t="str" cm="1">
+      <c r="G4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + G$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄈ</v>
       </c>
-      <c r="H4" s="151" t="str" cm="1">
+      <c r="H4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + H$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄉ</v>
       </c>
-      <c r="I4" s="151" t="str" cm="1">
+      <c r="I4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="I4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + I$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄊ</v>
       </c>
-      <c r="J4" s="151" t="str" cm="1">
+      <c r="J4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="J4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + J$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄋ</v>
       </c>
-      <c r="K4" s="151" t="str" cm="1">
+      <c r="K4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + K$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄌ</v>
       </c>
-      <c r="L4" s="151" t="str" cm="1">
+      <c r="L4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="L4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + L$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄍ</v>
       </c>
-      <c r="M4" s="151" t="str" cm="1">
+      <c r="M4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + M$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄎ</v>
       </c>
-      <c r="N4" s="151" t="str" cm="1">
+      <c r="N4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + N$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄏ</v>
       </c>
-      <c r="O4" s="151" t="str" cm="1">
+      <c r="O4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + O$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄐ</v>
       </c>
-      <c r="P4" s="151" t="str" cm="1">
+      <c r="P4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + P$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄑ</v>
       </c>
-      <c r="Q4" s="151" t="str" cm="1">
+      <c r="Q4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + Q$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄒ</v>
       </c>
-      <c r="R4" s="151" t="str" cm="1">
+      <c r="R4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="R4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + R$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄓ</v>
       </c>
-      <c r="S4" s="151" t="str" cm="1">
+      <c r="S4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="S4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + S$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄔ</v>
       </c>
-      <c r="T4" s="151" t="str" cm="1">
+      <c r="T4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + T$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄕ</v>
       </c>
-      <c r="U4" s="151" t="str" cm="1">
+      <c r="U4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="U4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + U$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄖ</v>
       </c>
-      <c r="V4" s="151" t="str" cm="1">
+      <c r="V4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="V4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + V$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄗ</v>
       </c>
-      <c r="W4" s="151" t="str" cm="1">
+      <c r="W4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="W4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + W$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄘ</v>
       </c>
-      <c r="X4" s="151" t="str" cm="1">
+      <c r="X4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="X4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + X$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄙ</v>
       </c>
-      <c r="Y4" s="151" t="str" cm="1">
+      <c r="Y4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="Y4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + Y$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄧ</v>
       </c>
-      <c r="Z4" s="151" t="str" cm="1">
+      <c r="Z4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="Z4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + Z$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄨ</v>
       </c>
-      <c r="AA4" s="151" t="str" cm="1">
+      <c r="AA4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AA4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AA$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄩ</v>
       </c>
-      <c r="AB4" s="151" t="str" cm="1">
+      <c r="AB4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AB4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AB$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄚ</v>
       </c>
-      <c r="AC4" s="151" t="str" cm="1">
+      <c r="AC4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AC4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AC$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄛ</v>
       </c>
-      <c r="AD4" s="151" t="str" cm="1">
+      <c r="AD4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AD4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AD$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄜ</v>
       </c>
-      <c r="AE4" s="151" t="str" cm="1">
+      <c r="AE4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AE4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AE$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄝ</v>
       </c>
-      <c r="AF4" s="151" t="str" cm="1">
+      <c r="AF4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AF4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AF$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄞ</v>
       </c>
-      <c r="AG4" s="151" t="str" cm="1">
+      <c r="AG4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AG4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AG$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄟ</v>
       </c>
-      <c r="AH4" s="151" t="str" cm="1">
+      <c r="AH4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AH4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AH$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄠ</v>
       </c>
-      <c r="AI4" s="151" t="str" cm="1">
+      <c r="AI4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AI4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AI$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄡ</v>
       </c>
-      <c r="AJ4" s="151" t="str" cm="1">
+      <c r="AJ4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AJ4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AJ$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄢ</v>
       </c>
-      <c r="AK4" s="151" t="str" cm="1">
+      <c r="AK4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AK4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AK$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄣ</v>
       </c>
-      <c r="AL4" s="151" t="str" cm="1">
+      <c r="AL4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AL4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AL$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄤ</v>
       </c>
-      <c r="AM4" s="151" t="str" cm="1">
+      <c r="AM4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AM4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AM$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄥ</v>
       </c>
-      <c r="AN4" s="151" t="str" cm="1">
+      <c r="AN4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AN4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AN$2, COLUMN($AZ:$AZ)))</f>
         <v>ㄦ</v>
       </c>
-      <c r="AO4" s="151" t="str" cm="1">
+      <c r="AO4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AO4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AO$2, COLUMN($AZ:$AZ)))</f>
         <v>ˉ</v>
       </c>
-      <c r="AP4" s="151" t="str" cm="1">
+      <c r="AP4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AP4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AP$2, COLUMN($AZ:$AZ)))</f>
         <v>ˊ</v>
       </c>
-      <c r="AQ4" s="151" t="str" cm="1">
+      <c r="AQ4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AQ4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AQ$2, COLUMN($AZ:$AZ)))</f>
         <v>ˇ</v>
       </c>
-      <c r="AR4" s="151" t="str" cm="1">
+      <c r="AR4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AR4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AR$2, COLUMN($AZ:$AZ)))</f>
         <v>ˋ</v>
       </c>
-      <c r="AS4" s="151" t="str" cm="1">
+      <c r="AS4" s="131" t="str" cm="1">
         <f t="array" aca="1" ref="AS4" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AS$2, COLUMN($AZ:$AZ)))</f>
         <v>˙</v>
       </c>
@@ -8584,16 +8466,16 @@
       <c r="AY4"/>
       <c r="AZ4"/>
       <c r="BA4"/>
-      <c r="BB4" s="147" t="s">
+      <c r="BB4" s="127" t="s">
         <v>290</v>
       </c>
-      <c r="BC4" s="146" t="s">
+      <c r="BC4" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="BD4" s="145"/>
-      <c r="BE4" s="145"/>
-      <c r="BF4" s="145"/>
-      <c r="BG4" s="145"/>
+      <c r="BD4" s="125"/>
+      <c r="BE4" s="125"/>
+      <c r="BF4" s="125"/>
+      <c r="BG4" s="125"/>
       <c r="BI4" s="38"/>
       <c r="BJ4" s="38"/>
       <c r="BK4" s="39"/>
@@ -8601,361 +8483,361 @@
       <c r="BM4" s="38"/>
     </row>
     <row r="5" spans="1:65" ht="40.5" customHeight="1">
-      <c r="A5" s="144"/>
-      <c r="B5" s="150" t="s">
+      <c r="A5" s="124"/>
+      <c r="B5" s="130" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="148" t="str" cm="1">
+      <c r="C5" s="129"/>
+      <c r="D5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + D$2, COLUMN($AX:$AX)))</f>
         <v>b</v>
       </c>
-      <c r="E5" s="148" t="str" cm="1">
+      <c r="E5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + E$2, COLUMN($AX:$AX)))</f>
         <v>p</v>
       </c>
-      <c r="F5" s="148" t="str" cm="1">
+      <c r="F5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + F$2, COLUMN($AX:$AX)))</f>
         <v>m</v>
       </c>
-      <c r="G5" s="148" t="str" cm="1">
+      <c r="G5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + G$2, COLUMN($AX:$AX)))</f>
         <v>f</v>
       </c>
-      <c r="H5" s="148" t="str" cm="1">
+      <c r="H5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="H5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + H$2, COLUMN($AX:$AX)))</f>
         <v>d</v>
       </c>
-      <c r="I5" s="148" t="str" cm="1">
+      <c r="I5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="I5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + I$2, COLUMN($AX:$AX)))</f>
         <v>t</v>
       </c>
-      <c r="J5" s="148" t="str" cm="1">
+      <c r="J5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="J5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + J$2, COLUMN($AX:$AX)))</f>
         <v>n</v>
       </c>
-      <c r="K5" s="148" t="str" cm="1">
+      <c r="K5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + K$2, COLUMN($AX:$AX)))</f>
         <v>l</v>
       </c>
-      <c r="L5" s="148" t="str" cm="1">
+      <c r="L5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="L5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + L$2, COLUMN($AX:$AX)))</f>
         <v>g</v>
       </c>
-      <c r="M5" s="148" t="str" cm="1">
+      <c r="M5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="M5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + M$2, COLUMN($AX:$AX)))</f>
         <v>k</v>
       </c>
-      <c r="N5" s="148" t="str" cm="1">
+      <c r="N5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + N$2, COLUMN($AX:$AX)))</f>
         <v>h</v>
       </c>
-      <c r="O5" s="148" t="str" cm="1">
+      <c r="O5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + O$2, COLUMN($AX:$AX)))</f>
         <v>j</v>
       </c>
-      <c r="P5" s="148" t="str" cm="1">
+      <c r="P5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + P$2, COLUMN($AX:$AX)))</f>
         <v>q</v>
       </c>
-      <c r="Q5" s="148" t="str" cm="1">
+      <c r="Q5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + Q$2, COLUMN($AX:$AX)))</f>
         <v>x</v>
       </c>
-      <c r="R5" s="148" t="str" cm="1">
+      <c r="R5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="R5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + R$2, COLUMN($AX:$AX)))</f>
         <v>Z</v>
       </c>
-      <c r="S5" s="148" t="str" cm="1">
+      <c r="S5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="S5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + S$2, COLUMN($AX:$AX)))</f>
         <v>C</v>
       </c>
-      <c r="T5" s="148" t="str" cm="1">
+      <c r="T5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="T5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + T$2, COLUMN($AX:$AX)))</f>
         <v>S</v>
       </c>
-      <c r="U5" s="148" t="str" cm="1">
+      <c r="U5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="U5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + U$2, COLUMN($AX:$AX)))</f>
         <v>r</v>
       </c>
-      <c r="V5" s="148" t="str" cm="1">
+      <c r="V5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="V5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + V$2, COLUMN($AX:$AX)))</f>
         <v>z</v>
       </c>
-      <c r="W5" s="148" t="str" cm="1">
+      <c r="W5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="W5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + W$2, COLUMN($AX:$AX)))</f>
         <v>c</v>
       </c>
-      <c r="X5" s="148" t="str" cm="1">
+      <c r="X5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="X5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + X$2, COLUMN($AX:$AX)))</f>
         <v>s</v>
       </c>
-      <c r="Y5" s="148" t="str" cm="1">
+      <c r="Y5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="Y5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + Y$2, COLUMN($AX:$AX)))</f>
         <v>i</v>
       </c>
-      <c r="Z5" s="148" t="str" cm="1">
+      <c r="Z5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="Z5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + Z$2, COLUMN($AX:$AX)))</f>
         <v>u</v>
       </c>
-      <c r="AA5" s="148" t="str" cm="1">
+      <c r="AA5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AA5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AA$2, COLUMN($AX:$AX)))</f>
         <v>v</v>
       </c>
-      <c r="AB5" s="148" t="str" cm="1">
+      <c r="AB5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AB5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AB$2, COLUMN($AX:$AX)))</f>
         <v>a</v>
       </c>
-      <c r="AC5" s="148" t="str" cm="1">
+      <c r="AC5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AC5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AC$2, COLUMN($AX:$AX)))</f>
         <v>o</v>
       </c>
-      <c r="AD5" s="148" t="str" cm="1">
+      <c r="AD5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AD5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AD$2, COLUMN($AX:$AX)))</f>
         <v>e</v>
       </c>
-      <c r="AE5" s="148" t="str" cm="1">
+      <c r="AE5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AE5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AE$2, COLUMN($AX:$AX)))</f>
         <v>E</v>
       </c>
-      <c r="AF5" s="148" t="str" cm="1">
+      <c r="AF5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AF5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AF$2, COLUMN($AX:$AX)))</f>
         <v>A</v>
       </c>
-      <c r="AG5" s="148" t="str" cm="1">
+      <c r="AG5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AG5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AG$2, COLUMN($AX:$AX)))</f>
         <v>I</v>
       </c>
-      <c r="AH5" s="148" t="str" cm="1">
+      <c r="AH5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AH5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AH$2, COLUMN($AX:$AX)))</f>
         <v>O</v>
       </c>
-      <c r="AI5" s="148" t="str" cm="1">
+      <c r="AI5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AI5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AI$2, COLUMN($AX:$AX)))</f>
         <v>U</v>
       </c>
-      <c r="AJ5" s="148" t="str" cm="1">
+      <c r="AJ5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AJ5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AJ$2, COLUMN($AX:$AX)))</f>
         <v>M</v>
       </c>
-      <c r="AK5" s="148" t="str" cm="1">
+      <c r="AK5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AK5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AK$2, COLUMN($AX:$AX)))</f>
         <v>N</v>
       </c>
-      <c r="AL5" s="148" t="str" cm="1">
+      <c r="AL5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AL5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AL$2, COLUMN($AX:$AX)))</f>
         <v>K</v>
       </c>
-      <c r="AM5" s="148" t="str" cm="1">
+      <c r="AM5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AM5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AM$2, COLUMN($AX:$AX)))</f>
         <v>G</v>
       </c>
-      <c r="AN5" s="148" t="str" cm="1">
+      <c r="AN5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AN5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AN$2, COLUMN($AX:$AX)))</f>
         <v>R</v>
       </c>
-      <c r="AO5" s="148" t="str" cm="1">
+      <c r="AO5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AO5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AO$2, COLUMN($AX:$AX)))</f>
         <v>1</v>
       </c>
-      <c r="AP5" s="148" t="str" cm="1">
+      <c r="AP5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AP5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AP$2, COLUMN($AX:$AX)))</f>
         <v>2</v>
       </c>
-      <c r="AQ5" s="148" t="str" cm="1">
+      <c r="AQ5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AQ5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AQ$2, COLUMN($AX:$AX)))</f>
         <v>3</v>
       </c>
-      <c r="AR5" s="148" t="str" cm="1">
+      <c r="AR5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AR5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AR$2, COLUMN($AX:$AX)))</f>
         <v>4</v>
       </c>
-      <c r="AS5" s="148" t="str" cm="1">
+      <c r="AS5" s="128" t="str" cm="1">
         <f t="array" aca="1" ref="AS5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AS$2, COLUMN($AX:$AX)))</f>
         <v>5</v>
       </c>
-      <c r="BB5" s="147" t="s">
+      <c r="BB5" s="127" t="s">
         <v>288</v>
       </c>
-      <c r="BC5" s="146" t="s">
+      <c r="BC5" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="BD5" s="145"/>
-      <c r="BE5" s="145"/>
-      <c r="BF5" s="145"/>
-      <c r="BG5" s="145"/>
+      <c r="BD5" s="125"/>
+      <c r="BE5" s="125"/>
+      <c r="BF5" s="125"/>
+      <c r="BG5" s="125"/>
     </row>
-    <row r="6" spans="1:65" s="107" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A6" s="144"/>
-      <c r="B6" s="143" t="s">
+    <row r="6" spans="1:65" s="99" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A6" s="124"/>
+      <c r="B6" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="141" t="str" cm="1">
+      <c r="C6" s="122"/>
+      <c r="D6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + D$2, COLUMN($AY:$AY)))</f>
         <v>b</v>
       </c>
-      <c r="E6" s="141" t="str" cm="1">
+      <c r="E6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + E$2, COLUMN($AY:$AY)))</f>
         <v>p</v>
       </c>
-      <c r="F6" s="141" t="str" cm="1">
+      <c r="F6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + F$2, COLUMN($AY:$AY)))</f>
         <v>m</v>
       </c>
-      <c r="G6" s="141" t="str" cm="1">
+      <c r="G6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + G$2, COLUMN($AY:$AY)))</f>
         <v>f</v>
       </c>
-      <c r="H6" s="141" t="str" cm="1">
+      <c r="H6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="H6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + H$2, COLUMN($AY:$AY)))</f>
         <v>d</v>
       </c>
-      <c r="I6" s="141" t="str" cm="1">
+      <c r="I6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="I6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + I$2, COLUMN($AY:$AY)))</f>
         <v>t</v>
       </c>
-      <c r="J6" s="141" t="str" cm="1">
+      <c r="J6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="J6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + J$2, COLUMN($AY:$AY)))</f>
         <v>n</v>
       </c>
-      <c r="K6" s="141" t="str" cm="1">
+      <c r="K6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + K$2, COLUMN($AY:$AY)))</f>
         <v>l</v>
       </c>
-      <c r="L6" s="141" t="str" cm="1">
+      <c r="L6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="L6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + L$2, COLUMN($AY:$AY)))</f>
         <v>g</v>
       </c>
-      <c r="M6" s="141" t="str" cm="1">
+      <c r="M6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="M6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + M$2, COLUMN($AY:$AY)))</f>
         <v>k</v>
       </c>
-      <c r="N6" s="141" t="str" cm="1">
+      <c r="N6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + N$2, COLUMN($AY:$AY)))</f>
         <v>h</v>
       </c>
-      <c r="O6" s="141" t="str" cm="1">
+      <c r="O6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + O$2, COLUMN($AY:$AY)))</f>
         <v>j</v>
       </c>
-      <c r="P6" s="141" t="str" cm="1">
+      <c r="P6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + P$2, COLUMN($AY:$AY)))</f>
         <v>q</v>
       </c>
-      <c r="Q6" s="141" t="str" cm="1">
+      <c r="Q6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + Q$2, COLUMN($AY:$AY)))</f>
         <v>x</v>
       </c>
-      <c r="R6" s="141" t="str" cm="1">
+      <c r="R6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="R6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + R$2, COLUMN($AY:$AY)))</f>
         <v>zh</v>
       </c>
-      <c r="S6" s="141" t="str" cm="1">
+      <c r="S6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="S6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + S$2, COLUMN($AY:$AY)))</f>
         <v>ch</v>
       </c>
-      <c r="T6" s="141" t="str" cm="1">
+      <c r="T6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="T6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + T$2, COLUMN($AY:$AY)))</f>
         <v>sh</v>
       </c>
-      <c r="U6" s="141" t="str" cm="1">
+      <c r="U6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="U6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + U$2, COLUMN($AY:$AY)))</f>
         <v>r</v>
       </c>
-      <c r="V6" s="141" t="str" cm="1">
+      <c r="V6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="V6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + V$2, COLUMN($AY:$AY)))</f>
         <v>z</v>
       </c>
-      <c r="W6" s="141" t="str" cm="1">
+      <c r="W6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="W6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + W$2, COLUMN($AY:$AY)))</f>
         <v>ch</v>
       </c>
-      <c r="X6" s="141" t="str" cm="1">
+      <c r="X6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="X6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + X$2, COLUMN($AY:$AY)))</f>
         <v>s</v>
       </c>
-      <c r="Y6" s="141" t="str" cm="1">
+      <c r="Y6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="Y6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + Y$2, COLUMN($AY:$AY)))</f>
         <v>i</v>
       </c>
-      <c r="Z6" s="141" t="str" cm="1">
+      <c r="Z6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="Z6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + Z$2, COLUMN($AY:$AY)))</f>
         <v>u</v>
       </c>
-      <c r="AA6" s="141" t="str" cm="1">
+      <c r="AA6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AA6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AA$2, COLUMN($AY:$AY)))</f>
         <v xml:space="preserve">ü </v>
       </c>
-      <c r="AB6" s="141" t="str" cm="1">
+      <c r="AB6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AB6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AB$2, COLUMN($AY:$AY)))</f>
         <v>a</v>
       </c>
-      <c r="AC6" s="141" t="str" cm="1">
+      <c r="AC6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AC6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AC$2, COLUMN($AY:$AY)))</f>
         <v>o</v>
       </c>
-      <c r="AD6" s="141" t="str" cm="1">
+      <c r="AD6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AD6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AD$2, COLUMN($AY:$AY)))</f>
         <v>e</v>
       </c>
-      <c r="AE6" s="141" t="str" cm="1">
+      <c r="AE6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AE6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AE$2, COLUMN($AY:$AY)))</f>
         <v xml:space="preserve">ê </v>
       </c>
-      <c r="AF6" s="141" t="str" cm="1">
+      <c r="AF6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AF6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AF$2, COLUMN($AY:$AY)))</f>
         <v>ai</v>
       </c>
-      <c r="AG6" s="141" t="str" cm="1">
+      <c r="AG6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AG6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AG$2, COLUMN($AY:$AY)))</f>
         <v>ei</v>
       </c>
-      <c r="AH6" s="141" t="str" cm="1">
+      <c r="AH6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AH6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AH$2, COLUMN($AY:$AY)))</f>
         <v>ao</v>
       </c>
-      <c r="AI6" s="141" t="str" cm="1">
+      <c r="AI6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AI6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AI$2, COLUMN($AY:$AY)))</f>
         <v>ou</v>
       </c>
-      <c r="AJ6" s="141" t="str" cm="1">
+      <c r="AJ6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AJ6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AJ$2, COLUMN($AY:$AY)))</f>
         <v>an</v>
       </c>
-      <c r="AK6" s="141" t="str" cm="1">
+      <c r="AK6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AK6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AK$2, COLUMN($AY:$AY)))</f>
         <v>enn</v>
       </c>
-      <c r="AL6" s="141" t="str" cm="1">
+      <c r="AL6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AL6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AL$2, COLUMN($AY:$AY)))</f>
         <v>ang</v>
       </c>
-      <c r="AM6" s="141" t="str" cm="1">
+      <c r="AM6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AM6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AM$2, COLUMN($AY:$AY)))</f>
         <v>eng</v>
       </c>
-      <c r="AN6" s="141" t="str" cm="1">
+      <c r="AN6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AN6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AN$2, COLUMN($AY:$AY)))</f>
         <v>er</v>
       </c>
-      <c r="AO6" s="141" t="str" cm="1">
+      <c r="AO6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AO6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AO$2, COLUMN($AY:$AY)))</f>
         <v>om</v>
       </c>
-      <c r="AP6" s="141" t="str" cm="1">
+      <c r="AP6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AP6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AP$2, COLUMN($AY:$AY)))</f>
         <v>ann</v>
       </c>
-      <c r="AQ6" s="141" t="str" cm="1">
+      <c r="AQ6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AQ6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AQ$2, COLUMN($AY:$AY)))</f>
         <v>inn</v>
       </c>
-      <c r="AR6" s="141" t="str" cm="1">
+      <c r="AR6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AR6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AR$2, COLUMN($AY:$AY)))</f>
         <v>unn</v>
       </c>
-      <c r="AS6" s="141" t="str" cm="1">
+      <c r="AS6" s="121" t="str" cm="1">
         <f t="array" aca="1" ref="AS6" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AS$2, COLUMN($AY:$AY)))</f>
         <v>enn</v>
       </c>
@@ -8970,14 +8852,14 @@
       <c r="BL6" s="38"/>
       <c r="BM6" s="38"/>
     </row>
-    <row r="7" spans="1:65" s="107" customFormat="1" ht="36" customHeight="1" thickBot="1">
+    <row r="7" spans="1:65" s="99" customFormat="1" ht="36" customHeight="1" thickBot="1">
       <c r="A7"/>
-      <c r="AV7" s="140"/>
+      <c r="AV7" s="120"/>
       <c r="AW7"/>
       <c r="AX7"/>
       <c r="AY7"/>
       <c r="AZ7"/>
-      <c r="BC7" s="140"/>
+      <c r="BC7" s="120"/>
       <c r="BD7"/>
       <c r="BE7"/>
       <c r="BI7" s="38"/>
@@ -8990,69 +8872,69 @@
       <c r="BM7" s="38"/>
     </row>
     <row r="8" spans="1:65" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="94"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="117" t="s">
+      <c r="D8" s="107"/>
+      <c r="E8" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="F8" s="116"/>
-      <c r="G8" s="106" t="s">
+      <c r="F8" s="106"/>
+      <c r="G8" s="145" t="s">
         <v>285</v>
       </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="138" t="s">
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="148" t="s">
         <v>284</v>
       </c>
-      <c r="K8" s="137"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="138" t="s">
+      <c r="K8" s="149"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="148" t="s">
         <v>283</v>
       </c>
-      <c r="N8" s="137"/>
-      <c r="O8" s="136"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="139" t="s">
+      <c r="N8" s="149"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="R8" s="116"/>
-      <c r="S8" s="138" t="s">
+      <c r="R8" s="106"/>
+      <c r="S8" s="148" t="s">
         <v>281</v>
       </c>
-      <c r="T8" s="137"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="138" t="s">
+      <c r="T8" s="149"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="W8" s="137"/>
-      <c r="X8" s="136"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="102" t="s">
+      <c r="W8" s="149"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="102" t="s">
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="95" t="s">
         <v>278</v>
       </c>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="100" t="s">
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="142" t="s">
         <v>277</v>
       </c>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="97" t="s">
+      <c r="AF8" s="143"/>
+      <c r="AG8" s="144"/>
+      <c r="AH8" s="151" t="s">
         <v>276</v>
       </c>
-      <c r="AI8" s="96"/>
-      <c r="AJ8" s="95"/>
-      <c r="AK8" s="97" t="s">
+      <c r="AI8" s="152"/>
+      <c r="AJ8" s="153"/>
+      <c r="AK8" s="151" t="s">
         <v>275</v>
       </c>
-      <c r="AL8" s="96"/>
-      <c r="AM8" s="95"/>
+      <c r="AL8" s="152"/>
+      <c r="AM8" s="153"/>
       <c r="AN8" s="94"/>
       <c r="AO8" s="94"/>
       <c r="AP8" s="94"/>
@@ -9061,50 +8943,50 @@
       <c r="AS8" s="94"/>
       <c r="AT8" s="94"/>
       <c r="AU8" s="94"/>
-      <c r="AV8" s="135" t="s">
+      <c r="AV8" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="AW8" s="134" t="s">
+      <c r="AW8" s="117" t="s">
         <v>274</v>
       </c>
-      <c r="AX8" s="133" t="s">
+      <c r="AX8" s="116" t="s">
         <v>273</v>
       </c>
-      <c r="AY8" s="132" t="s">
+      <c r="AY8" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="AZ8" s="131" t="s">
+      <c r="AZ8" s="114" t="s">
         <v>271</v>
       </c>
-      <c r="BC8" s="130" t="s">
+      <c r="BC8" s="113" t="s">
         <v>272</v>
       </c>
-      <c r="BD8" s="129" t="s">
+      <c r="BD8" s="112" t="s">
         <v>271</v>
       </c>
-      <c r="BE8" s="128" t="s">
+      <c r="BE8" s="111" t="s">
         <v>270</v>
       </c>
-      <c r="BF8" s="127" t="s">
+      <c r="BF8" s="110" t="s">
         <v>269</v>
       </c>
       <c r="BI8" s="62" t="s">
         <v>268</v>
       </c>
       <c r="BJ8" s="61" t="str">
-        <f xml:space="preserve"> MID(BI8, $BJ$7+1, BM8-$BJ$7-1)</f>
+        <f t="shared" ref="BJ8:BJ32" si="0" xml:space="preserve"> MID(BI8, $BJ$7+1, BM8-$BJ$7-1)</f>
         <v>^m(\d)$</v>
       </c>
       <c r="BK8" s="60" t="str">
-        <f>MID(BI8, BM8+1, BL8-BM8-1)</f>
+        <f t="shared" ref="BK8:BK32" si="1">MID(BI8, BM8+1, BL8-BM8-1)</f>
         <v>mu$1</v>
       </c>
       <c r="BL8" s="59">
-        <f>FIND("/",BI8, BM8+1)</f>
+        <f t="shared" ref="BL8:BL32" si="2">FIND("/",BI8, BM8+1)</f>
         <v>25</v>
       </c>
       <c r="BM8" s="59">
-        <f xml:space="preserve"> FIND("/", BI8, 13)</f>
+        <f t="shared" ref="BM8:BM32" si="3" xml:space="preserve"> FIND("/", BI8, 13)</f>
         <v>20</v>
       </c>
     </row>
@@ -9118,7 +9000,7 @@
         <f ca="1">D5</f>
         <v>b</v>
       </c>
-      <c r="F9" s="114" t="str">
+      <c r="F9" s="104" t="str">
         <f ca="1">D6</f>
         <v>b</v>
       </c>
@@ -9130,20 +9012,20 @@
       <c r="I9" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="J9" s="126" t="str">
+      <c r="J9" s="154" t="str">
         <f ca="1">AQ4</f>
         <v>ˇ</v>
       </c>
-      <c r="K9" s="125"/>
-      <c r="L9" s="122" t="s">
+      <c r="K9" s="155"/>
+      <c r="L9" s="109" t="s">
         <v>267</v>
       </c>
-      <c r="M9" s="124" t="str">
+      <c r="M9" s="156" t="str">
         <f ca="1">AR4</f>
         <v>ˋ</v>
       </c>
-      <c r="N9" s="123"/>
-      <c r="O9" s="119" t="s">
+      <c r="N9" s="157"/>
+      <c r="O9" s="108" t="s">
         <v>266</v>
       </c>
       <c r="P9" s="90" t="str">
@@ -9158,20 +9040,20 @@
         <f ca="1">R6</f>
         <v>zh</v>
       </c>
-      <c r="S9" s="124" t="str">
+      <c r="S9" s="156" t="str">
         <f ca="1">AP4</f>
         <v>ˊ</v>
       </c>
-      <c r="T9" s="123"/>
-      <c r="U9" s="122" t="s">
+      <c r="T9" s="157"/>
+      <c r="U9" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="V9" s="121" t="str">
+      <c r="V9" s="158" t="str">
         <f ca="1">AS4</f>
         <v>˙</v>
       </c>
-      <c r="W9" s="120"/>
-      <c r="X9" s="119" t="s">
+      <c r="W9" s="159"/>
+      <c r="X9" s="108" t="s">
         <v>264</v>
       </c>
       <c r="Y9" s="83" t="str">
@@ -9219,9 +9101,9 @@
         <f ca="1">AN6</f>
         <v>er</v>
       </c>
-      <c r="AK9" s="110"/>
-      <c r="AL9" s="109"/>
-      <c r="AM9" s="108"/>
+      <c r="AK9" s="160"/>
+      <c r="AL9" s="161"/>
+      <c r="AM9" s="100"/>
       <c r="AN9" s="80"/>
       <c r="AO9" s="80"/>
       <c r="AP9" s="80"/>
@@ -9255,103 +9137,103 @@
         <v>ㄅ</v>
       </c>
       <c r="BE9" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC9,1)</f>
+        <f t="shared" ref="BE9:BE40" si="4" xml:space="preserve"> MID($BC$4,$BC9,1)</f>
         <v>1</v>
       </c>
       <c r="BF9" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC9,1)</f>
+        <f t="shared" ref="BF9:BF40" si="5" xml:space="preserve"> MID($BC$5,$BC9,1)</f>
         <v>1</v>
       </c>
       <c r="BI9" s="62" t="s">
         <v>262</v>
       </c>
       <c r="BJ9" s="61" t="str">
-        <f xml:space="preserve"> MID(BI9, $BJ$7+1, BM9-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>^r5$</v>
       </c>
       <c r="BK9" s="60" t="str">
-        <f>MID(BI9, BM9+1, BL9-BM9-1)</f>
+        <f t="shared" si="1"/>
         <v>er5</v>
       </c>
       <c r="BL9" s="59">
-        <f>FIND("/",BI9, BM9+1)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="BM9" s="59">
-        <f xml:space="preserve"> FIND("/", BI9, 13)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:65" s="115" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
+    <row r="10" spans="1:65" s="105" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="94"/>
       <c r="D10" s="94"/>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="145" t="s">
         <v>261</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="106" t="s">
+      <c r="F10" s="146"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="145" t="s">
         <v>260</v>
       </c>
-      <c r="I10" s="105"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="117" t="s">
+      <c r="I10" s="146"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="M10" s="116"/>
-      <c r="N10" s="106" t="s">
+      <c r="M10" s="106"/>
+      <c r="N10" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="O10" s="105"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="106" t="s">
+      <c r="O10" s="146"/>
+      <c r="P10" s="147"/>
+      <c r="Q10" s="145" t="s">
         <v>258</v>
       </c>
-      <c r="R10" s="105"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="117" t="s">
+      <c r="R10" s="146"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="V10" s="116"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="102" t="s">
+      <c r="V10" s="106"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="102" t="s">
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="100" t="s">
+      <c r="AB10" s="96"/>
+      <c r="AC10" s="142" t="s">
         <v>135</v>
       </c>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="100" t="s">
+      <c r="AD10" s="143"/>
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="142" t="s">
         <v>254</v>
       </c>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="100" t="s">
+      <c r="AG10" s="143"/>
+      <c r="AH10" s="144"/>
+      <c r="AI10" s="142" t="s">
         <v>253</v>
       </c>
-      <c r="AJ10" s="99"/>
-      <c r="AK10" s="98"/>
-      <c r="AL10" s="100" t="s">
+      <c r="AJ10" s="143"/>
+      <c r="AK10" s="144"/>
+      <c r="AL10" s="142" t="s">
         <v>252</v>
       </c>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="98"/>
-      <c r="AO10" s="97" t="s">
+      <c r="AM10" s="143"/>
+      <c r="AN10" s="144"/>
+      <c r="AO10" s="151" t="s">
         <v>251</v>
       </c>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="95"/>
+      <c r="AP10" s="152"/>
+      <c r="AQ10" s="153"/>
       <c r="AR10" s="94"/>
       <c r="AV10" s="49" cm="1">
         <f t="array" ref="AV10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
@@ -9378,30 +9260,30 @@
         <v>ㄆ</v>
       </c>
       <c r="BE10" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC10,1)</f>
+        <f t="shared" si="4"/>
         <v>q</v>
       </c>
       <c r="BF10" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC10,1)</f>
+        <f t="shared" si="5"/>
         <v>q</v>
       </c>
       <c r="BI10" s="62" t="s">
         <v>249</v>
       </c>
       <c r="BJ10" s="61" t="str">
-        <f xml:space="preserve"> MID(BI10, $BJ$7+1, BM10-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>iu</v>
       </c>
       <c r="BK10" s="60" t="str">
-        <f>MID(BI10, BM10+1, BL10-BM10-1)</f>
+        <f t="shared" si="1"/>
         <v>iou</v>
       </c>
       <c r="BL10" s="59">
-        <f>FIND("/",BI10, BM10+1)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="BM10" s="59">
-        <f xml:space="preserve"> FIND("/", BI10, 13)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -9441,7 +9323,7 @@
         <f ca="1">L5</f>
         <v>g</v>
       </c>
-      <c r="M11" s="114" t="str">
+      <c r="M11" s="104" t="str">
         <f ca="1">L6</f>
         <v>g</v>
       </c>
@@ -9477,7 +9359,7 @@
         <f ca="1">V5</f>
         <v>z</v>
       </c>
-      <c r="V11" s="114" t="str">
+      <c r="V11" s="104" t="str">
         <f ca="1">V6</f>
         <v>z</v>
       </c>
@@ -9513,7 +9395,7 @@
         <f ca="1">AG5</f>
         <v>I</v>
       </c>
-      <c r="AE11" s="113" t="str">
+      <c r="AE11" s="103" t="str">
         <f ca="1">AG6</f>
         <v>ei</v>
       </c>
@@ -9529,15 +9411,15 @@
         <f ca="1">AK6</f>
         <v>enn</v>
       </c>
-      <c r="AI11" s="110"/>
-      <c r="AJ11" s="109"/>
-      <c r="AK11" s="108"/>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="109"/>
-      <c r="AN11" s="108"/>
-      <c r="AO11" s="110"/>
-      <c r="AP11" s="109"/>
-      <c r="AQ11" s="108"/>
+      <c r="AI11" s="160"/>
+      <c r="AJ11" s="161"/>
+      <c r="AK11" s="100"/>
+      <c r="AL11" s="160"/>
+      <c r="AM11" s="161"/>
+      <c r="AN11" s="100"/>
+      <c r="AO11" s="160"/>
+      <c r="AP11" s="161"/>
+      <c r="AQ11" s="100"/>
       <c r="AR11" s="94"/>
       <c r="AV11" s="49" cm="1">
         <f t="array" ref="AV11" xml:space="preserve"> ROW() - ROW($8:$8)</f>
@@ -9564,94 +9446,94 @@
         <v>ㄇ</v>
       </c>
       <c r="BE11" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC11,1)</f>
+        <f t="shared" si="4"/>
         <v>a</v>
       </c>
       <c r="BF11" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC11,1)</f>
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
       <c r="BI11" s="62" t="s">
         <v>246</v>
       </c>
       <c r="BJ11" s="61" t="str">
-        <f xml:space="preserve"> MID(BI11, $BJ$7+1, BM11-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>ui</v>
       </c>
       <c r="BK11" s="60" t="str">
-        <f>MID(BI11, BM11+1, BL11-BM11-1)</f>
+        <f t="shared" si="1"/>
         <v>uei</v>
       </c>
       <c r="BL11" s="59">
-        <f>FIND("/",BI11, BM11+1)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="BM11" s="59">
-        <f xml:space="preserve"> FIND("/", BI11, 13)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:65" s="93" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="94"/>
       <c r="D12" s="94"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="106" t="s">
+      <c r="E12" s="102"/>
+      <c r="F12" s="145" t="s">
         <v>245</v>
       </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="106" t="s">
+      <c r="G12" s="146"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="145" t="s">
         <v>188</v>
       </c>
-      <c r="J12" s="105"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="106" t="s">
+      <c r="J12" s="146"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="145" t="s">
         <v>244</v>
       </c>
-      <c r="M12" s="105"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="106" t="s">
+      <c r="M12" s="146"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="145" t="s">
         <v>243</v>
       </c>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="106" t="s">
+      <c r="P12" s="146"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="S12" s="105"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="106" t="s">
+      <c r="S12" s="146"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="145" t="s">
         <v>242</v>
       </c>
-      <c r="V12" s="105"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="102" t="s">
+      <c r="V12" s="146"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="100" t="s">
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="102" t="s">
+      <c r="AB12" s="143"/>
+      <c r="AC12" s="144"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="AF12" s="101"/>
-      <c r="AG12" s="100" t="s">
+      <c r="AF12" s="96"/>
+      <c r="AG12" s="142" t="s">
         <v>239</v>
       </c>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="97" t="s">
+      <c r="AH12" s="143"/>
+      <c r="AI12" s="144"/>
+      <c r="AJ12" s="151" t="s">
         <v>238</v>
       </c>
-      <c r="AK12" s="96"/>
-      <c r="AL12" s="95"/>
+      <c r="AK12" s="152"/>
+      <c r="AL12" s="153"/>
       <c r="AM12" s="94"/>
       <c r="AN12" s="94"/>
       <c r="AO12" s="94"/>
@@ -9686,30 +9568,30 @@
         <v>ㄈ</v>
       </c>
       <c r="BE12" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC12,1)</f>
+        <f t="shared" si="4"/>
         <v>z</v>
       </c>
       <c r="BF12" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC12,1)</f>
+        <f t="shared" si="5"/>
         <v>z</v>
       </c>
       <c r="BI12" s="62" t="s">
         <v>236</v>
       </c>
       <c r="BJ12" s="61" t="str">
-        <f xml:space="preserve"> MID(BI12, $BJ$7+1, BM12-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>ong</v>
       </c>
       <c r="BK12" s="60" t="str">
-        <f>MID(BI12, BM12+1, BL12-BM12-1)</f>
+        <f t="shared" si="1"/>
         <v>ung</v>
       </c>
       <c r="BL12" s="59">
-        <f>FIND("/",BI12, BM12+1)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="BM12" s="59">
-        <f xml:space="preserve"> FIND("/", BI12, 13)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
@@ -9766,7 +9648,7 @@
         <f ca="1">P6</f>
         <v>q</v>
       </c>
-      <c r="R13" s="111" t="str">
+      <c r="R13" s="101" t="str">
         <f ca="1">T4</f>
         <v>ㄕ</v>
       </c>
@@ -9838,9 +9720,9 @@
         <f ca="1">AL6</f>
         <v>ang</v>
       </c>
-      <c r="AJ13" s="110"/>
-      <c r="AK13" s="109"/>
-      <c r="AL13" s="108"/>
+      <c r="AJ13" s="160"/>
+      <c r="AK13" s="161"/>
+      <c r="AL13" s="100"/>
       <c r="AM13" s="80"/>
       <c r="AN13" s="80"/>
       <c r="AO13" s="80"/>
@@ -9875,90 +9757,90 @@
         <v>ㄉ</v>
       </c>
       <c r="BE13" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC13,1)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="BF13" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC13,1)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="BI13" s="62" t="s">
         <v>234</v>
       </c>
       <c r="BJ13" s="61" t="str">
-        <f xml:space="preserve"> MID(BI13, $BJ$7+1, BM13-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>^yi?</v>
       </c>
       <c r="BK13" s="60" t="str">
-        <f>MID(BI13, BM13+1, BL13-BM13-1)</f>
+        <f t="shared" si="1"/>
         <v>i</v>
       </c>
       <c r="BL13" s="59">
-        <f>FIND("/",BI13, BM13+1)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="BM13" s="59">
-        <f xml:space="preserve"> FIND("/", BI13, 13)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:65" s="93" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A14" s="107"/>
-      <c r="B14" s="107"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="94"/>
       <c r="D14" s="94"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
-      <c r="G14" s="106" t="s">
+      <c r="G14" s="145" t="s">
         <v>233</v>
       </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="106" t="s">
+      <c r="H14" s="146"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="145" t="s">
         <v>232</v>
       </c>
-      <c r="K14" s="105"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="106" t="s">
+      <c r="K14" s="146"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="145" t="s">
         <v>192</v>
       </c>
-      <c r="N14" s="105"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="106" t="s">
+      <c r="N14" s="146"/>
+      <c r="O14" s="147"/>
+      <c r="P14" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="Q14" s="105"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="106" t="s">
+      <c r="Q14" s="146"/>
+      <c r="R14" s="147"/>
+      <c r="S14" s="145" t="s">
         <v>230</v>
       </c>
-      <c r="T14" s="105"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="106" t="s">
+      <c r="T14" s="146"/>
+      <c r="U14" s="147"/>
+      <c r="V14" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="W14" s="105"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="100" t="s">
+      <c r="W14" s="146"/>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="102" t="s">
+      <c r="Z14" s="143"/>
+      <c r="AA14" s="144"/>
+      <c r="AB14" s="97"/>
+      <c r="AC14" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="100" t="s">
+      <c r="AD14" s="96"/>
+      <c r="AE14" s="142" t="s">
         <v>228</v>
       </c>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="98"/>
-      <c r="AH14" s="97" t="s">
+      <c r="AF14" s="143"/>
+      <c r="AG14" s="144"/>
+      <c r="AH14" s="151" t="s">
         <v>227</v>
       </c>
-      <c r="AI14" s="96"/>
-      <c r="AJ14" s="95"/>
+      <c r="AI14" s="152"/>
+      <c r="AJ14" s="153"/>
       <c r="AK14" s="94"/>
       <c r="AL14" s="94"/>
       <c r="AM14" s="94"/>
@@ -9995,30 +9877,30 @@
         <v>ㄊ</v>
       </c>
       <c r="BE14" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC14,1)</f>
+        <f t="shared" si="4"/>
         <v>w</v>
       </c>
       <c r="BF14" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC14,1)</f>
+        <f t="shared" si="5"/>
         <v>w</v>
       </c>
       <c r="BI14" s="62" t="s">
         <v>224</v>
       </c>
       <c r="BJ14" s="61" t="str">
-        <f xml:space="preserve"> MID(BI14, $BJ$7+1, BM14-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>^wu?</v>
       </c>
       <c r="BK14" s="60" t="str">
-        <f>MID(BI14, BM14+1, BL14-BM14-1)</f>
+        <f t="shared" si="1"/>
         <v>u</v>
       </c>
       <c r="BL14" s="59">
-        <f>FIND("/",BI14, BM14+1)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="BM14" s="59">
-        <f xml:space="preserve"> FIND("/", BI14, 13)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
@@ -10182,30 +10064,30 @@
         <v>ㄋ</v>
       </c>
       <c r="BE15" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC15,1)</f>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="BF15" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC15,1)</f>
+        <f t="shared" si="5"/>
         <v>s</v>
       </c>
       <c r="BI15" s="62" t="s">
         <v>222</v>
       </c>
       <c r="BJ15" s="61" t="str">
-        <f xml:space="preserve"> MID(BI15, $BJ$7+1, BM15-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>iu</v>
       </c>
       <c r="BK15" s="60" t="str">
-        <f>MID(BI15, BM15+1, BL15-BM15-1)</f>
+        <f t="shared" si="1"/>
         <v>v</v>
       </c>
       <c r="BL15" s="59">
-        <f>FIND("/",BI15, BM15+1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="BM15" s="59">
-        <f xml:space="preserve"> FIND("/", BI15, 13)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -10282,30 +10164,30 @@
         <v>ㄌ</v>
       </c>
       <c r="BE16" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC16,1)</f>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="BF16" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC16,1)</f>
+        <f t="shared" si="5"/>
         <v>x</v>
       </c>
       <c r="BI16" s="62" t="s">
         <v>220</v>
       </c>
       <c r="BJ16" s="61" t="str">
-        <f xml:space="preserve"> MID(BI16, $BJ$7+1, BM16-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>^([jqx])u</v>
       </c>
       <c r="BK16" s="60" t="str">
-        <f>MID(BI16, BM16+1, BL16-BM16-1)</f>
+        <f t="shared" si="1"/>
         <v>$1v</v>
       </c>
       <c r="BL16" s="59">
-        <f>FIND("/",BI16, BM16+1)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="BM16" s="59">
-        <f xml:space="preserve"> FIND("/", BI16, 13)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
@@ -10338,30 +10220,30 @@
         <v>ㄍ</v>
       </c>
       <c r="BE17" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC17,1)</f>
+        <f t="shared" si="4"/>
         <v>e</v>
       </c>
       <c r="BF17" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC17,1)</f>
+        <f t="shared" si="5"/>
         <v>e</v>
       </c>
       <c r="BI17" s="62" t="s">
         <v>217</v>
       </c>
       <c r="BJ17" s="61" t="str">
-        <f xml:space="preserve"> MID(BI17, $BJ$7+1, BM17-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>([iuv])n</v>
       </c>
       <c r="BK17" s="60" t="str">
-        <f>MID(BI17, BM17+1, BL17-BM17-1)</f>
+        <f t="shared" si="1"/>
         <v>$1en</v>
       </c>
       <c r="BL17" s="59">
-        <f>FIND("/",BI17, BM17+1)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="BM17" s="59">
-        <f xml:space="preserve"> FIND("/", BI17, 13)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
@@ -10441,30 +10323,30 @@
         <v>ㄎ</v>
       </c>
       <c r="BE18" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC18,1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BF18" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC18,1)</f>
+        <f t="shared" si="5"/>
         <v>d</v>
       </c>
       <c r="BI18" s="62" t="s">
         <v>212</v>
       </c>
       <c r="BJ18" s="61" t="str">
-        <f xml:space="preserve"> MID(BI18, $BJ$7+1, BM18-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>^zhi?</v>
       </c>
       <c r="BK18" s="60" t="str">
-        <f>MID(BI18, BM18+1, BL18-BM18-1)</f>
+        <f t="shared" si="1"/>
         <v>Z</v>
       </c>
       <c r="BL18" s="59">
-        <f>FIND("/",BI18, BM18+1)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="BM18" s="59">
-        <f xml:space="preserve"> FIND("/", BI18, 13)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -10549,30 +10431,30 @@
         <v>ㄏ</v>
       </c>
       <c r="BE19" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC19,1)</f>
+        <f t="shared" si="4"/>
         <v>c</v>
       </c>
       <c r="BF19" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC19,1)</f>
+        <f t="shared" si="5"/>
         <v>c</v>
       </c>
       <c r="BI19" s="62" t="s">
         <v>210</v>
       </c>
       <c r="BJ19" s="61" t="str">
-        <f xml:space="preserve"> MID(BI19, $BJ$7+1, BM19-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>^chi?</v>
       </c>
       <c r="BK19" s="60" t="str">
-        <f>MID(BI19, BM19+1, BL19-BM19-1)</f>
+        <f t="shared" si="1"/>
         <v>C</v>
       </c>
       <c r="BL19" s="59">
-        <f>FIND("/",BI19, BM19+1)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="BM19" s="59">
-        <f xml:space="preserve"> FIND("/", BI19, 13)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -10657,30 +10539,30 @@
         <v>ㄐ</v>
       </c>
       <c r="BE20" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC20,1)</f>
+        <f t="shared" si="4"/>
         <v>r</v>
       </c>
       <c r="BF20" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC20,1)</f>
+        <f t="shared" si="5"/>
         <v>r</v>
       </c>
       <c r="BI20" s="62" t="s">
         <v>208</v>
       </c>
       <c r="BJ20" s="61" t="str">
-        <f xml:space="preserve"> MID(BI20, $BJ$7+1, BM20-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>^shi?</v>
       </c>
       <c r="BK20" s="60" t="str">
-        <f>MID(BI20, BM20+1, BL20-BM20-1)</f>
+        <f t="shared" si="1"/>
         <v>S</v>
       </c>
       <c r="BL20" s="59">
-        <f>FIND("/",BI20, BM20+1)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="BM20" s="59">
-        <f xml:space="preserve"> FIND("/", BI20, 13)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -10759,30 +10641,30 @@
         <v>ㄑ</v>
       </c>
       <c r="BE21" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC21,1)</f>
+        <f t="shared" si="4"/>
         <v>f</v>
       </c>
       <c r="BF21" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC21,1)</f>
+        <f t="shared" si="5"/>
         <v>f</v>
       </c>
       <c r="BI21" s="62" t="s">
         <v>204</v>
       </c>
       <c r="BJ21" s="61" t="str">
-        <f xml:space="preserve"> MID(BI21, $BJ$7+1, BM21-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>^([zcsr])i</v>
       </c>
       <c r="BK21" s="60" t="str">
-        <f>MID(BI21, BM21+1, BL21-BM21-1)</f>
+        <f t="shared" si="1"/>
         <v>$1</v>
       </c>
       <c r="BL21" s="59">
-        <f>FIND("/",BI21, BM21+1)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="BM21" s="59">
-        <f xml:space="preserve"> FIND("/", BI21, 13)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
@@ -10858,30 +10740,30 @@
         <v>ㄒ</v>
       </c>
       <c r="BE22" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC22,1)</f>
+        <f t="shared" si="4"/>
         <v>v</v>
       </c>
       <c r="BF22" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC22,1)</f>
+        <f t="shared" si="5"/>
         <v>v</v>
       </c>
       <c r="BI22" s="62" t="s">
         <v>201</v>
       </c>
       <c r="BJ22" s="61" t="str">
-        <f xml:space="preserve"> MID(BI22, $BJ$7+1, BM22-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>ai</v>
       </c>
       <c r="BK22" s="60" t="str">
-        <f>MID(BI22, BM22+1, BL22-BM22-1)</f>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="BL22" s="59">
-        <f>FIND("/",BI22, BM22+1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="BM22" s="59">
-        <f xml:space="preserve"> FIND("/", BI22, 13)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -10959,30 +10841,30 @@
         <v>ㄓ</v>
       </c>
       <c r="BE23" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC23,1)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="BF23" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC23,1)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="BI23" s="62" t="s">
         <v>196</v>
       </c>
       <c r="BJ23" s="61" t="str">
-        <f xml:space="preserve"> MID(BI23, $BJ$7+1, BM23-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>ei</v>
       </c>
       <c r="BK23" s="60" t="str">
-        <f>MID(BI23, BM23+1, BL23-BM23-1)</f>
+        <f t="shared" si="1"/>
         <v>I</v>
       </c>
       <c r="BL23" s="59">
-        <f>FIND("/",BI23, BM23+1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="BM23" s="59">
-        <f xml:space="preserve"> FIND("/", BI23, 13)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -11062,30 +10944,30 @@
         <v>ㄔ</v>
       </c>
       <c r="BE24" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC24,1)</f>
+        <f t="shared" si="4"/>
         <v>t</v>
       </c>
       <c r="BF24" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC24,1)</f>
+        <f t="shared" si="5"/>
         <v>t</v>
       </c>
       <c r="BI24" s="62" t="s">
         <v>190</v>
       </c>
       <c r="BJ24" s="61" t="str">
-        <f xml:space="preserve"> MID(BI24, $BJ$7+1, BM24-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>ao</v>
       </c>
       <c r="BK24" s="60" t="str">
-        <f>MID(BI24, BM24+1, BL24-BM24-1)</f>
+        <f t="shared" si="1"/>
         <v>O</v>
       </c>
       <c r="BL24" s="59">
-        <f>FIND("/",BI24, BM24+1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="BM24" s="59">
-        <f xml:space="preserve"> FIND("/", BI24, 13)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -11171,30 +11053,30 @@
         <v>ㄕ</v>
       </c>
       <c r="BE25" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC25,1)</f>
+        <f t="shared" si="4"/>
         <v>g</v>
       </c>
       <c r="BF25" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC25,1)</f>
+        <f t="shared" si="5"/>
         <v>g</v>
       </c>
       <c r="BI25" s="62" t="s">
         <v>185</v>
       </c>
       <c r="BJ25" s="61" t="str">
-        <f xml:space="preserve"> MID(BI25, $BJ$7+1, BM25-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>ou</v>
       </c>
       <c r="BK25" s="60" t="str">
-        <f>MID(BI25, BM25+1, BL25-BM25-1)</f>
+        <f t="shared" si="1"/>
         <v>U</v>
       </c>
       <c r="BL25" s="59">
-        <f>FIND("/",BI25, BM25+1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="BM25" s="59">
-        <f xml:space="preserve"> FIND("/", BI25, 13)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -11279,30 +11161,30 @@
         <v>ㄖ</v>
       </c>
       <c r="BE26" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC26,1)</f>
+        <f t="shared" si="4"/>
         <v>b</v>
       </c>
       <c r="BF26" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC26,1)</f>
+        <f t="shared" si="5"/>
         <v>b</v>
       </c>
       <c r="BI26" s="62" t="s">
         <v>181</v>
       </c>
       <c r="BJ26" s="61" t="str">
-        <f xml:space="preserve"> MID(BI26, $BJ$7+1, BM26-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>ang</v>
       </c>
       <c r="BK26" s="60" t="str">
-        <f>MID(BI26, BM26+1, BL26-BM26-1)</f>
+        <f t="shared" si="1"/>
         <v>K</v>
       </c>
       <c r="BL26" s="59">
-        <f>FIND("/",BI26, BM26+1)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="BM26" s="59">
-        <f xml:space="preserve"> FIND("/", BI26, 13)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
@@ -11381,30 +11263,30 @@
         <v>ㄗ</v>
       </c>
       <c r="BE27" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC27,1)</f>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="BF27" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC27,1)</f>
+        <f t="shared" si="5"/>
         <v>y</v>
       </c>
       <c r="BI27" s="62" t="s">
         <v>177</v>
       </c>
       <c r="BJ27" s="61" t="str">
-        <f xml:space="preserve"> MID(BI27, $BJ$7+1, BM27-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>eng</v>
       </c>
       <c r="BK27" s="60" t="str">
-        <f>MID(BI27, BM27+1, BL27-BM27-1)</f>
+        <f t="shared" si="1"/>
         <v>G</v>
       </c>
       <c r="BL27" s="59">
-        <f>FIND("/",BI27, BM27+1)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="BM27" s="59">
-        <f xml:space="preserve"> FIND("/", BI27, 13)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
@@ -11480,30 +11362,30 @@
         <v>ㄘ</v>
       </c>
       <c r="BE28" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC28,1)</f>
+        <f t="shared" si="4"/>
         <v>h</v>
       </c>
       <c r="BF28" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC28,1)</f>
+        <f t="shared" si="5"/>
         <v>h</v>
       </c>
       <c r="BI28" s="62" t="s">
         <v>172</v>
       </c>
       <c r="BJ28" s="61" t="str">
-        <f xml:space="preserve"> MID(BI28, $BJ$7+1, BM28-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>an</v>
       </c>
       <c r="BK28" s="60" t="str">
-        <f>MID(BI28, BM28+1, BL28-BM28-1)</f>
+        <f t="shared" si="1"/>
         <v>M</v>
       </c>
       <c r="BL28" s="59">
-        <f>FIND("/",BI28, BM28+1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="BM28" s="59">
-        <f xml:space="preserve"> FIND("/", BI28, 13)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -11581,30 +11463,30 @@
         <v>ㄙ</v>
       </c>
       <c r="BE29" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC29,1)</f>
+        <f t="shared" si="4"/>
         <v>n</v>
       </c>
       <c r="BF29" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC29,1)</f>
+        <f t="shared" si="5"/>
         <v>n</v>
       </c>
       <c r="BI29" s="62" t="s">
         <v>167</v>
       </c>
       <c r="BJ29" s="61" t="str">
-        <f xml:space="preserve"> MID(BI29, $BJ$7+1, BM29-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>en</v>
       </c>
       <c r="BK29" s="60" t="str">
-        <f>MID(BI29, BM29+1, BL29-BM29-1)</f>
+        <f t="shared" si="1"/>
         <v>N</v>
       </c>
       <c r="BL29" s="59">
-        <f>FIND("/",BI29, BM29+1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="BM29" s="59">
-        <f xml:space="preserve"> FIND("/", BI29, 13)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -11684,30 +11566,30 @@
         <v>ㄧ</v>
       </c>
       <c r="BE30" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC30,1)</f>
+        <f t="shared" si="4"/>
         <v>u</v>
       </c>
       <c r="BF30" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC30,1)</f>
+        <f t="shared" si="5"/>
         <v>u</v>
       </c>
       <c r="BI30" s="62" t="s">
         <v>163</v>
       </c>
       <c r="BJ30" s="61" t="str">
-        <f xml:space="preserve"> MID(BI30, $BJ$7+1, BM30-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>er</v>
       </c>
       <c r="BK30" s="60" t="str">
-        <f>MID(BI30, BM30+1, BL30-BM30-1)</f>
+        <f t="shared" si="1"/>
         <v>R</v>
       </c>
       <c r="BL30" s="59">
-        <f>FIND("/",BI30, BM30+1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="BM30" s="59">
-        <f xml:space="preserve"> FIND("/", BI30, 13)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -11792,30 +11674,30 @@
         <v>ㄨ</v>
       </c>
       <c r="BE31" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC31,1)</f>
+        <f t="shared" si="4"/>
         <v>j</v>
       </c>
       <c r="BF31" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC31,1)</f>
+        <f t="shared" si="5"/>
         <v>j</v>
       </c>
       <c r="BI31" s="62" t="s">
         <v>160</v>
       </c>
       <c r="BJ31" s="61" t="str">
-        <f xml:space="preserve"> MID(BI31, $BJ$7+1, BM31-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>eh</v>
       </c>
       <c r="BK31" s="60" t="str">
-        <f>MID(BI31, BM31+1, BL31-BM31-1)</f>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="BL31" s="59">
-        <f>FIND("/",BI31, BM31+1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="BM31" s="59">
-        <f xml:space="preserve"> FIND("/", BI31, 13)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
@@ -11901,30 +11783,30 @@
         <v>ㄩ</v>
       </c>
       <c r="BE32" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC32,1)</f>
+        <f t="shared" si="4"/>
         <v>m</v>
       </c>
       <c r="BF32" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC32,1)</f>
+        <f t="shared" si="5"/>
         <v>m</v>
       </c>
       <c r="BI32" s="62" t="s">
         <v>155</v>
       </c>
       <c r="BJ32" s="61" t="str">
-        <f xml:space="preserve"> MID(BI32, $BJ$7+1, BM32-$BJ$7-1)</f>
+        <f t="shared" si="0"/>
         <v>([iv])e</v>
       </c>
       <c r="BK32" s="60" t="str">
-        <f>MID(BI32, BM32+1, BL32-BM32-1)</f>
+        <f t="shared" si="1"/>
         <v>$1E</v>
       </c>
       <c r="BL32" s="59">
-        <f>FIND("/",BI32, BM32+1)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="BM32" s="59">
-        <f xml:space="preserve"> FIND("/", BI32, 13)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -12003,11 +11885,11 @@
         <v>ㄚ</v>
       </c>
       <c r="BE33" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC33,1)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="BF33" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC33,1)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="BI33" s="38"/>
@@ -12088,11 +11970,11 @@
         <v>ㄛ</v>
       </c>
       <c r="BE34" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC34,1)</f>
+        <f t="shared" si="4"/>
         <v>i</v>
       </c>
       <c r="BF34" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC34,1)</f>
+        <f t="shared" si="5"/>
         <v>i</v>
       </c>
       <c r="BI34" s="38"/>
@@ -12173,11 +12055,11 @@
         <v>ㄜ</v>
       </c>
       <c r="BE35" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC35,1)</f>
+        <f t="shared" si="4"/>
         <v>k</v>
       </c>
       <c r="BF35" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC35,1)</f>
+        <f t="shared" si="5"/>
         <v>k</v>
       </c>
       <c r="BI35" s="38"/>
@@ -12258,11 +12140,11 @@
         <v>ㄝ</v>
       </c>
       <c r="BE36" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC36,1)</f>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="BF36" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC36,1)</f>
+        <f t="shared" si="5"/>
         <v>,</v>
       </c>
       <c r="BI36" s="38"/>
@@ -12343,11 +12225,11 @@
         <v>ㄞ</v>
       </c>
       <c r="BE37" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC37,1)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="BF37" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC37,1)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="BI37" s="38"/>
@@ -12428,11 +12310,11 @@
         <v>ㄟ</v>
       </c>
       <c r="BE38" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC38,1)</f>
+        <f t="shared" si="4"/>
         <v>o</v>
       </c>
       <c r="BF38" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC38,1)</f>
+        <f t="shared" si="5"/>
         <v>o</v>
       </c>
       <c r="BI38" s="38"/>
@@ -12513,11 +12395,11 @@
         <v>ㄠ</v>
       </c>
       <c r="BE39" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC39,1)</f>
+        <f t="shared" si="4"/>
         <v>l</v>
       </c>
       <c r="BF39" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC39,1)</f>
+        <f t="shared" si="5"/>
         <v>l</v>
       </c>
       <c r="BI39" s="38"/>
@@ -12566,11 +12448,11 @@
         <v>ㄡ</v>
       </c>
       <c r="BE40" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC40,1)</f>
+        <f t="shared" si="4"/>
         <v>.</v>
       </c>
       <c r="BF40" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC40,1)</f>
+        <f t="shared" si="5"/>
         <v>.</v>
       </c>
       <c r="BI40" s="38"/>
@@ -12652,11 +12534,11 @@
         <v>ㄢ</v>
       </c>
       <c r="BE41" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC41,1)</f>
+        <f t="shared" ref="BE41:BE58" si="6" xml:space="preserve"> MID($BC$4,$BC41,1)</f>
         <v>0</v>
       </c>
       <c r="BF41" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC41,1)</f>
+        <f t="shared" ref="BF41:BF58" si="7" xml:space="preserve"> MID($BC$5,$BC41,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -12732,11 +12614,11 @@
         <v>ㄣ</v>
       </c>
       <c r="BE42" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC42,1)</f>
+        <f t="shared" si="6"/>
         <v>p</v>
       </c>
       <c r="BF42" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC42,1)</f>
+        <f t="shared" si="7"/>
         <v>p</v>
       </c>
     </row>
@@ -12812,11 +12694,11 @@
         <v>ㄤ</v>
       </c>
       <c r="BE43" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC43,1)</f>
+        <f t="shared" si="6"/>
         <v>;</v>
       </c>
       <c r="BF43" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC43,1)</f>
+        <f t="shared" si="7"/>
         <v>;</v>
       </c>
     </row>
@@ -12892,11 +12774,11 @@
         <v>ㄥ</v>
       </c>
       <c r="BE44" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC44,1)</f>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="BF44" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC44,1)</f>
+        <f t="shared" si="7"/>
         <v>/</v>
       </c>
     </row>
@@ -12972,11 +12854,11 @@
         <v>ㄦ</v>
       </c>
       <c r="BE45" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC45,1)</f>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="BF45" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC45,1)</f>
+        <f t="shared" si="7"/>
         <v>-</v>
       </c>
     </row>
@@ -13052,11 +12934,11 @@
         <v>ˉ</v>
       </c>
       <c r="BE46" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC46,1)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="BF46" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC46,1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13132,11 +13014,11 @@
         <v>ˊ</v>
       </c>
       <c r="BE47" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC47,1)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="BF47" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC47,1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13212,11 +13094,11 @@
         <v>ˇ</v>
       </c>
       <c r="BE48" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC48,1)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="BF48" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC48,1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13292,11 +13174,11 @@
         <v>ˋ</v>
       </c>
       <c r="BE49" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC49,1)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="BF49" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC49,1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13372,11 +13254,11 @@
         <v>˙</v>
       </c>
       <c r="BE50" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC50,1)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="BF50" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC50,1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13441,11 +13323,11 @@
       </c>
       <c r="BD51" s="43"/>
       <c r="BE51" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC51,1)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BF51" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC51,1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13510,11 +13392,11 @@
       </c>
       <c r="BD52" s="43"/>
       <c r="BE52" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC52,1)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BF52" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC52,1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13579,11 +13461,11 @@
       </c>
       <c r="BD53" s="43"/>
       <c r="BE53" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC53,1)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BF53" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC53,1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13648,11 +13530,11 @@
       </c>
       <c r="BD54" s="43"/>
       <c r="BE54" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC54,1)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BF54" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC54,1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13717,11 +13599,11 @@
       </c>
       <c r="BD55" s="43"/>
       <c r="BE55" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC55,1)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BF55" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC55,1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13786,11 +13668,11 @@
       </c>
       <c r="BD56" s="43"/>
       <c r="BE56" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC56,1)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BF56" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC56,1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13855,11 +13737,11 @@
       </c>
       <c r="BD57" s="43"/>
       <c r="BE57" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC57,1)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BF57" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC57,1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13924,11 +13806,11 @@
       </c>
       <c r="BD58" s="43"/>
       <c r="BE58" s="42" t="str">
-        <f xml:space="preserve"> MID($BC$4,$BC58,1)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="BF58" s="41" t="str">
-        <f xml:space="preserve"> MID($BC$5,$BC58,1)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -13950,6 +13832,36 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
     <mergeCell ref="AL10:AN10"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
@@ -13964,36 +13876,6 @@
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="V9:W9"/>
     <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
